--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621580.5563013805</v>
+        <v>-622259.9734032124</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038453</v>
+        <v>5588220.064038455</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736549</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>171.3576072122376</v>
       </c>
       <c r="E11" t="n">
-        <v>219.448162527526</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>239.9403233994415</v>
       </c>
       <c r="H11" t="n">
-        <v>151.8262626552655</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>48.04258570959362</v>
       </c>
       <c r="U11" t="n">
-        <v>36.60555390722006</v>
+        <v>80.89774890663895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X11" t="n">
         <v>206.8201389062934</v>
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>34.11896028540477</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>70.51790558414926</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.33473866201366</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>20.24146696733968</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.12980963648917</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>112.9136404279223</v>
       </c>
       <c r="V13" t="n">
-        <v>86.73825122973341</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>111.9051373003467</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.7134039554107</v>
+        <v>29.62998688856371</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130924</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
-        <v>197.7060249576204</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>219.448162527526</v>
       </c>
       <c r="F14" t="n">
-        <v>238.6199786155031</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.01899660566981</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>48.04258570959362</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>80.89774890663895</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
-        <v>187.5198806735467</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>206.8201389062934</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.77124205704072</v>
+        <v>20.55450847142485</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.82520712046117</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U15" t="n">
-        <v>44.89856912753535</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V15" t="n">
-        <v>54.7219661587211</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>89.92844892413036</v>
+        <v>67.51300991159485</v>
       </c>
       <c r="X15" t="n">
-        <v>24.54811807355509</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.33011483010776</v>
+        <v>10.33011483010782</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.12980963648917</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.39157652215679</v>
+        <v>35.39157652215685</v>
       </c>
       <c r="T16" t="n">
-        <v>229.6724362179661</v>
+        <v>58.2827360505379</v>
       </c>
       <c r="U16" t="n">
-        <v>117.0998931645391</v>
+        <v>112.9136404279223</v>
       </c>
       <c r="V16" t="n">
-        <v>86.73825122973335</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9051373003466</v>
+        <v>111.9051373003467</v>
       </c>
       <c r="X16" t="n">
-        <v>57.55023929614973</v>
+        <v>57.55023929614978</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.42510705221741</v>
+        <v>107.7598457142307</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C17" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E17" t="n">
         <v>118.8615799110771</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G17" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881659</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709789</v>
       </c>
       <c r="X17" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898445</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860432</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.51650845588367</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.40745017229533</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>38.82520712046114</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>202.3080786453643</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>29.69591141282163</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U19" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147345</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>11.31855468389773</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>43.96561679408998</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.1268213389617</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966434</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117141</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E20" t="n">
-        <v>118.8615799110769</v>
+        <v>118.8615799110771</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990541</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829924</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H20" t="n">
-        <v>51.2396800388164</v>
+        <v>51.23968003881657</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914081</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709772</v>
+        <v>86.93329805709789</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898443</v>
+        <v>106.2335562898445</v>
       </c>
       <c r="Y20" t="n">
-        <v>117.6301540860434</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>65.56542481610252</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>145.180098865789</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>22.58102674078115</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.536870148815651</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>7.884599576142249</v>
       </c>
       <c r="U22" t="n">
         <v>284.3033405953505</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>11.31855468389762</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.1268213389617</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1381382966434</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D23" t="n">
-        <v>97.11944234117141</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E23" t="n">
-        <v>118.8615799110769</v>
+        <v>118.8615799110771</v>
       </c>
       <c r="F23" t="n">
-        <v>138.0333959990541</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G23" t="n">
-        <v>139.3537407829924</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H23" t="n">
-        <v>51.2396800388164</v>
+        <v>51.23968003881657</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.63319857914081</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W23" t="n">
-        <v>86.93329805709772</v>
+        <v>86.93329805709789</v>
       </c>
       <c r="X23" t="n">
-        <v>106.2335562898443</v>
+        <v>106.2335562898445</v>
       </c>
       <c r="Y23" t="n">
-        <v>117.6301540860431</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S24" t="n">
-        <v>82.20728112031428</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T24" t="n">
         <v>185.4764132683503</v>
@@ -2454,13 +2454,13 @@
         <v>216.2882692949636</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>126.0341940053412</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>15.12980963648917</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>95.31229150166655</v>
       </c>
       <c r="S25" t="n">
         <v>206.781276689585</v>
@@ -2530,13 +2530,13 @@
         <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>81.42067817883154</v>
+        <v>12.32705781147345</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.31855468389762</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I26" t="n">
-        <v>46.46448383044607</v>
+        <v>46.46448383044608</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718222</v>
+        <v>70.39487552718225</v>
       </c>
       <c r="T26" t="n">
-        <v>118.4374612367758</v>
+        <v>118.4374612367759</v>
       </c>
       <c r="U26" t="n">
         <v>151.2926244338212</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72499035729005</v>
+        <v>80.72499035729007</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269054</v>
+        <v>66.92498520269055</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026893</v>
+        <v>50.54634960026894</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604837</v>
+        <v>49.49409945604839</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423468</v>
+        <v>49.9610237842347</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750528</v>
+        <v>65.9607902975053</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645894</v>
+        <v>54.33966129645896</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019766</v>
+        <v>33.49810771019767</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833753</v>
+        <v>34.66960724833754</v>
       </c>
       <c r="S28" t="n">
         <v>105.7864520493391</v>
@@ -3029,10 +3029,10 @@
         <v>289.108279482593</v>
       </c>
       <c r="C32" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402747</v>
       </c>
       <c r="D32" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848027</v>
       </c>
       <c r="E32" t="n">
         <v>289.8430380547082</v>
@@ -3044,10 +3044,10 @@
         <v>310.3351989266237</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824478</v>
+        <v>222.2211381824477</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46448383044611</v>
+        <v>46.4644838304461</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718228</v>
+        <v>70.39487552718225</v>
       </c>
       <c r="T32" t="n">
         <v>118.4374612367759</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.7249903572901</v>
+        <v>80.72499035729008</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269058</v>
+        <v>66.92498520269056</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026897</v>
+        <v>50.54634960026895</v>
       </c>
       <c r="E34" t="n">
-        <v>49.49409945604842</v>
+        <v>49.4940994560484</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423473</v>
+        <v>49.96102378423471</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750533</v>
+        <v>65.96079029750531</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645898</v>
+        <v>54.33966129645897</v>
       </c>
       <c r="I34" t="n">
-        <v>33.4981077101977</v>
+        <v>33.49810771019769</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833757</v>
+        <v>34.66960724833756</v>
       </c>
       <c r="S34" t="n">
         <v>105.7864520493391</v>
       </c>
       <c r="T34" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777201</v>
       </c>
       <c r="U34" t="n">
         <v>183.3085159551046</v>
@@ -3250,7 +3250,7 @@
         <v>182.3000128275289</v>
       </c>
       <c r="X34" t="n">
-        <v>127.9451148233321</v>
+        <v>127.945114823332</v>
       </c>
       <c r="Y34" t="n">
         <v>118.8199825793997</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.3049220700381</v>
+        <v>210.3049220700379</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3162390277198</v>
+        <v>198.3162390277197</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722478</v>
+        <v>189.2975430722477</v>
       </c>
       <c r="E35" t="n">
-        <v>211.0396806421533</v>
+        <v>211.0396806421532</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301305</v>
+        <v>230.2114967301304</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140688</v>
+        <v>231.5318415140687</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698928</v>
+        <v>143.4177807698927</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422097</v>
+        <v>39.63410382422083</v>
       </c>
       <c r="U35" t="n">
-        <v>72.4892670212663</v>
+        <v>72.48926702126616</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102172</v>
+        <v>153.8112993102171</v>
       </c>
       <c r="W35" t="n">
-        <v>179.1113987881741</v>
+        <v>179.111398788174</v>
       </c>
       <c r="X35" t="n">
-        <v>198.4116570209207</v>
+        <v>198.4116570209206</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171195</v>
+        <v>209.8082548171193</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>33.0025851622646</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -3363,7 +3363,7 @@
         <v>95.77124205704072</v>
       </c>
       <c r="I36" t="n">
-        <v>56.40745017229533</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S36" t="n">
-        <v>0.5138049447652338</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T36" t="n">
         <v>185.4764132683503</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.1196853320855</v>
+        <v>1.921632944735023</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.12980963648917</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678419</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T37" t="n">
-        <v>49.87425416516525</v>
+        <v>49.87425416516511</v>
       </c>
       <c r="U37" t="n">
-        <v>104.5051585425497</v>
+        <v>104.5051585425495</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436076</v>
+        <v>78.32976934436061</v>
       </c>
       <c r="W37" t="n">
-        <v>103.496655414974</v>
+        <v>103.4966554149739</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077713</v>
+        <v>49.14175741077699</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684482</v>
+        <v>158.210737026468</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.63410382422085</v>
+        <v>39.63410382422086</v>
       </c>
       <c r="U38" t="n">
         <v>72.48926702126619</v>
@@ -3600,7 +3600,7 @@
         <v>95.77124205704072</v>
       </c>
       <c r="I39" t="n">
-        <v>56.40745017229533</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>38.82520712046114</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T39" t="n">
-        <v>147.1650110926543</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U39" t="n">
         <v>216.2882692949636</v>
@@ -3642,7 +3642,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>111.8186592098328</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.921632944735052</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>78.32976934436064</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4966554149739</v>
+        <v>221.6907672745969</v>
       </c>
       <c r="X40" t="n">
-        <v>196.6451272269067</v>
+        <v>49.14175741077702</v>
       </c>
       <c r="Y40" t="n">
         <v>40.0166251668447</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.7131640938349</v>
+        <v>210.713164093835</v>
       </c>
       <c r="C41" t="n">
-        <v>198.7244810515166</v>
+        <v>198.7244810515168</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7057850960446</v>
+        <v>189.7057850960448</v>
       </c>
       <c r="E41" t="n">
-        <v>211.4479226659502</v>
+        <v>211.4479226659503</v>
       </c>
       <c r="F41" t="n">
-        <v>230.6197387539273</v>
+        <v>230.6197387539275</v>
       </c>
       <c r="G41" t="n">
-        <v>231.9400835378656</v>
+        <v>231.9400835378658</v>
       </c>
       <c r="H41" t="n">
-        <v>143.8260227936896</v>
+        <v>143.8260227936898</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.04234584801778</v>
+        <v>40.04234584801792</v>
       </c>
       <c r="U41" t="n">
-        <v>72.89750904506312</v>
+        <v>72.89750904506326</v>
       </c>
       <c r="V41" t="n">
-        <v>154.219541334014</v>
+        <v>154.2195413340142</v>
       </c>
       <c r="W41" t="n">
-        <v>179.5196408119709</v>
+        <v>179.5196408119711</v>
       </c>
       <c r="X41" t="n">
-        <v>198.8198990447175</v>
+        <v>198.8198990447177</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.2164968409163</v>
+        <v>210.2164968409164</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H42" t="n">
-        <v>95.77124205704072</v>
+        <v>62.76698619070521</v>
       </c>
       <c r="I42" t="n">
         <v>56.40745017229533</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S42" t="n">
-        <v>5.82095125412457</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>185.4764132683503</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.329874968531982</v>
+        <v>2.329874968532124</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>115.3364176930434</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.12980963648917</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>172.4949523956969</v>
+        <v>27.39133666058115</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896206</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663465</v>
+        <v>104.9134005663466</v>
       </c>
       <c r="V43" t="n">
-        <v>78.73801136815757</v>
+        <v>78.73801136815771</v>
       </c>
       <c r="W43" t="n">
-        <v>103.9048974387708</v>
+        <v>103.904897438771</v>
       </c>
       <c r="X43" t="n">
-        <v>49.54999943457395</v>
+        <v>49.54999943457409</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42486719064163</v>
+        <v>40.42486719064178</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>210.713164093835</v>
       </c>
       <c r="C44" t="n">
-        <v>198.7244810515167</v>
+        <v>198.7244810515168</v>
       </c>
       <c r="D44" t="n">
-        <v>189.7057850960447</v>
+        <v>189.7057850960448</v>
       </c>
       <c r="E44" t="n">
-        <v>211.4479226659502</v>
+        <v>211.4479226659503</v>
       </c>
       <c r="F44" t="n">
-        <v>230.6197387539274</v>
+        <v>230.6197387539275</v>
       </c>
       <c r="G44" t="n">
-        <v>231.9400835378657</v>
+        <v>231.9400835378658</v>
       </c>
       <c r="H44" t="n">
-        <v>143.8260227936897</v>
+        <v>143.8260227936898</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.04234584801784</v>
+        <v>40.04234584801793</v>
       </c>
       <c r="U44" t="n">
-        <v>72.89750904506317</v>
+        <v>72.89750904506326</v>
       </c>
       <c r="V44" t="n">
-        <v>154.2195413340141</v>
+        <v>154.2195413340142</v>
       </c>
       <c r="W44" t="n">
-        <v>179.519640811971</v>
+        <v>179.5196408119711</v>
       </c>
       <c r="X44" t="n">
-        <v>198.8198990447176</v>
+        <v>198.8198990447177</v>
       </c>
       <c r="Y44" t="n">
         <v>210.2164968409164</v>
@@ -4056,7 +4056,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>134.0809735286662</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
@@ -4071,10 +4071,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>56.40745017229533</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>38.82520712046114</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T45" t="n">
-        <v>152.4721574020136</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U45" t="n">
         <v>216.2882692949636</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968532039</v>
+        <v>2.329874968532124</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>128.6406996610782</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.12980963648917</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.39133666058107</v>
+        <v>142.7277543536246</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28249618896212</v>
+        <v>50.28249618896221</v>
       </c>
       <c r="U46" t="n">
         <v>104.9134005663466</v>
       </c>
       <c r="V46" t="n">
-        <v>78.73801136815763</v>
+        <v>78.73801136815771</v>
       </c>
       <c r="W46" t="n">
-        <v>103.9048974387709</v>
+        <v>103.904897438771</v>
       </c>
       <c r="X46" t="n">
-        <v>49.549999434574</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.42486719064169</v>
+        <v>40.42486719064178</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>881.9460861350219</v>
+        <v>647.7924743441488</v>
       </c>
       <c r="C11" t="n">
-        <v>881.9460861350219</v>
+        <v>438.9796249369847</v>
       </c>
       <c r="D11" t="n">
-        <v>881.9460861350219</v>
+        <v>265.8911328034112</v>
       </c>
       <c r="E11" t="n">
-        <v>660.2812755011573</v>
+        <v>265.8911328034112</v>
       </c>
       <c r="F11" t="n">
-        <v>419.2509940713561</v>
+        <v>265.8911328034112</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8870310416172</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0265863185274</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K11" t="n">
-        <v>147.0265863185274</v>
+        <v>314.6758957228673</v>
       </c>
       <c r="L11" t="n">
-        <v>147.0265863185274</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="M11" t="n">
-        <v>147.0265863185274</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="N11" t="n">
-        <v>434.1018702361334</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="O11" t="n">
-        <v>725.250596185328</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="P11" t="n">
-        <v>1016.399322134523</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q11" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R11" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S11" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.83062433049</v>
+        <v>1127.830624330491</v>
       </c>
       <c r="U11" t="n">
-        <v>1090.8553173535</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="V11" t="n">
-        <v>1090.8553173535</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="W11" t="n">
-        <v>1090.8553173535</v>
+        <v>856.701705562627</v>
       </c>
       <c r="X11" t="n">
-        <v>881.9460861350219</v>
+        <v>647.7924743441488</v>
       </c>
       <c r="Y11" t="n">
-        <v>881.9460861350219</v>
+        <v>647.7924743441488</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>267.2938080572462</v>
+        <v>57.99076602155594</v>
       </c>
       <c r="C12" t="n">
-        <v>267.2938080572462</v>
+        <v>57.99076602155594</v>
       </c>
       <c r="D12" t="n">
-        <v>267.2938080572462</v>
+        <v>57.99076602155594</v>
       </c>
       <c r="E12" t="n">
-        <v>120.2657981141175</v>
+        <v>57.99076602155594</v>
       </c>
       <c r="F12" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G12" t="n">
-        <v>120.2657981141175</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J12" t="n">
-        <v>23.52716977367229</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K12" t="n">
-        <v>305.4437334532579</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="L12" t="n">
-        <v>394.8464152398755</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="M12" t="n">
-        <v>394.8464152398755</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="N12" t="n">
-        <v>394.8464152398755</v>
+        <v>405.6036089649104</v>
       </c>
       <c r="O12" t="n">
-        <v>685.9951411890701</v>
+        <v>696.7523349141054</v>
       </c>
       <c r="P12" t="n">
-        <v>977.1438671382647</v>
+        <v>977.1438671382663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R12" t="n">
-        <v>1176.358488683615</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S12" t="n">
-        <v>1176.358488683615</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="T12" t="n">
-        <v>1162.12948555137</v>
+        <v>1122.912104621613</v>
       </c>
       <c r="U12" t="n">
-        <v>943.6564862635281</v>
+        <v>904.439105333771</v>
       </c>
       <c r="V12" t="n">
-        <v>715.260863711862</v>
+        <v>676.0434827821049</v>
       </c>
       <c r="W12" t="n">
-        <v>644.0306560511052</v>
+        <v>434.7276140154149</v>
       </c>
       <c r="X12" t="n">
-        <v>446.1136679288998</v>
+        <v>236.8106258932095</v>
       </c>
       <c r="Y12" t="n">
-        <v>426.7132508385071</v>
+        <v>217.4102088028168</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.2995224938266</v>
+        <v>83.46124923025178</v>
       </c>
       <c r="C13" t="n">
-        <v>241.2995224938266</v>
+        <v>83.46124923025178</v>
       </c>
       <c r="D13" t="n">
-        <v>241.2995224938266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E13" t="n">
-        <v>241.2995224938266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F13" t="n">
-        <v>241.2995224938266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G13" t="n">
-        <v>241.2995224938266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H13" t="n">
-        <v>84.3960013456398</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I13" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K13" t="n">
-        <v>88.75452017135981</v>
+        <v>88.75452017135984</v>
       </c>
       <c r="L13" t="n">
-        <v>229.8283602936759</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M13" t="n">
         <v>390.4883917441603</v>
@@ -5218,31 +5218,31 @@
         <v>783.3870097116665</v>
       </c>
       <c r="Q13" t="n">
-        <v>768.1043737152128</v>
+        <v>783.3870097116665</v>
       </c>
       <c r="R13" t="n">
-        <v>768.1043737152128</v>
+        <v>783.3870097116665</v>
       </c>
       <c r="S13" t="n">
-        <v>732.3553065211149</v>
+        <v>747.6379425175686</v>
       </c>
       <c r="T13" t="n">
-        <v>673.483855965016</v>
+        <v>688.7664919614697</v>
       </c>
       <c r="U13" t="n">
-        <v>559.4296737145894</v>
+        <v>574.7123097110431</v>
       </c>
       <c r="V13" t="n">
-        <v>471.8152785330405</v>
+        <v>313.9770052694657</v>
       </c>
       <c r="W13" t="n">
-        <v>358.7797863104681</v>
+        <v>200.9415130468933</v>
       </c>
       <c r="X13" t="n">
-        <v>300.6482314658724</v>
+        <v>142.8099582022975</v>
       </c>
       <c r="Y13" t="n">
-        <v>251.7339819181779</v>
+        <v>93.89570865460311</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>766.0218375432538</v>
+        <v>454.0048298147011</v>
       </c>
       <c r="C14" t="n">
-        <v>557.2089881360896</v>
+        <v>245.191980407537</v>
       </c>
       <c r="D14" t="n">
-        <v>357.5059326233418</v>
+        <v>245.191980407537</v>
       </c>
       <c r="E14" t="n">
-        <v>357.5059326233418</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F14" t="n">
-        <v>116.4756511935406</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G14" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J14" t="n">
-        <v>23.52716977367229</v>
+        <v>147.0265863185274</v>
       </c>
       <c r="K14" t="n">
-        <v>23.52716977367229</v>
+        <v>438.1753122677224</v>
       </c>
       <c r="L14" t="n">
-        <v>142.9531442869388</v>
+        <v>594.0610367852262</v>
       </c>
       <c r="M14" t="n">
-        <v>142.9531442869388</v>
+        <v>885.2097627344212</v>
       </c>
       <c r="N14" t="n">
-        <v>434.1018702361334</v>
+        <v>885.2097627344212</v>
       </c>
       <c r="O14" t="n">
-        <v>725.250596185328</v>
+        <v>885.2097627344212</v>
       </c>
       <c r="P14" t="n">
-        <v>1016.399322134523</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T14" t="n">
-        <v>1176.358488683615</v>
+        <v>1127.830624330491</v>
       </c>
       <c r="U14" t="n">
-        <v>1176.358488683615</v>
+        <v>1046.115726444998</v>
       </c>
       <c r="V14" t="n">
-        <v>1176.358488683615</v>
+        <v>882.2573616009674</v>
       </c>
       <c r="W14" t="n">
-        <v>986.9444678012443</v>
+        <v>692.8433407185969</v>
       </c>
       <c r="X14" t="n">
-        <v>986.9444678012443</v>
+        <v>483.934109500119</v>
       </c>
       <c r="Y14" t="n">
-        <v>986.9444678012443</v>
+        <v>483.934109500119</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>420.8081078829507</v>
+        <v>44.28929954278834</v>
       </c>
       <c r="C15" t="n">
-        <v>259.1044351239054</v>
+        <v>44.28929954278834</v>
       </c>
       <c r="D15" t="n">
-        <v>120.2657981141175</v>
+        <v>44.28929954278834</v>
       </c>
       <c r="E15" t="n">
-        <v>120.2657981141175</v>
+        <v>44.28929954278834</v>
       </c>
       <c r="F15" t="n">
-        <v>120.2657981141175</v>
+        <v>44.28929954278834</v>
       </c>
       <c r="G15" t="n">
-        <v>120.2657981141175</v>
+        <v>44.28929954278834</v>
       </c>
       <c r="H15" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J15" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K15" t="n">
-        <v>23.52716977367229</v>
+        <v>305.4437334532578</v>
       </c>
       <c r="L15" t="n">
-        <v>314.6758957228669</v>
+        <v>594.0610367852262</v>
       </c>
       <c r="M15" t="n">
-        <v>605.8246216720615</v>
+        <v>594.0610367852262</v>
       </c>
       <c r="N15" t="n">
-        <v>685.9951411890701</v>
+        <v>885.2097627344212</v>
       </c>
       <c r="O15" t="n">
-        <v>685.9951411890701</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="P15" t="n">
-        <v>977.1438671382647</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R15" t="n">
-        <v>1176.358488683615</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S15" t="n">
-        <v>1176.358488683615</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="T15" t="n">
-        <v>989.0085762913417</v>
+        <v>949.7911953615845</v>
       </c>
       <c r="U15" t="n">
-        <v>943.6564862635282</v>
+        <v>731.3181960737425</v>
       </c>
       <c r="V15" t="n">
-        <v>888.3817729718908</v>
+        <v>502.9225735220764</v>
       </c>
       <c r="W15" t="n">
-        <v>797.5449558768096</v>
+        <v>434.7276140154149</v>
       </c>
       <c r="X15" t="n">
-        <v>772.7488770146327</v>
+        <v>236.8106258932095</v>
       </c>
       <c r="Y15" t="n">
-        <v>580.2275506642115</v>
+        <v>44.28929954278834</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="C16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="D16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I16" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K16" t="n">
         <v>88.75452017135981</v>
@@ -5443,43 +5443,43 @@
         <v>229.8283602936759</v>
       </c>
       <c r="M16" t="n">
-        <v>390.4883917441603</v>
+        <v>390.4883917441601</v>
       </c>
       <c r="N16" t="n">
-        <v>550.5627442088382</v>
+        <v>550.562744208838</v>
       </c>
       <c r="O16" t="n">
-        <v>687.4987641731923</v>
+        <v>687.4987641731919</v>
       </c>
       <c r="P16" t="n">
-        <v>783.3870097116665</v>
+        <v>783.387009711666</v>
       </c>
       <c r="Q16" t="n">
-        <v>768.1043737152128</v>
+        <v>783.387009711666</v>
       </c>
       <c r="R16" t="n">
-        <v>768.1043737152128</v>
+        <v>783.387009711666</v>
       </c>
       <c r="S16" t="n">
-        <v>732.355306521115</v>
+        <v>747.6379425175681</v>
       </c>
       <c r="T16" t="n">
-        <v>500.3629467049876</v>
+        <v>688.7664919614692</v>
       </c>
       <c r="U16" t="n">
-        <v>382.0802263367663</v>
+        <v>574.7123097110426</v>
       </c>
       <c r="V16" t="n">
-        <v>294.4658311552174</v>
+        <v>313.9770052694652</v>
       </c>
       <c r="W16" t="n">
-        <v>181.4303389326451</v>
+        <v>200.9415130468928</v>
       </c>
       <c r="X16" t="n">
-        <v>123.2987840880494</v>
+        <v>142.8099582022971</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.38453454035503</v>
+        <v>33.96162919802366</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340308</v>
+        <v>680.8463388340317</v>
       </c>
       <c r="C17" t="n">
-        <v>573.6360981303504</v>
+        <v>573.6360981303513</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210863</v>
+        <v>475.5356513210872</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907054</v>
+        <v>355.4734493907067</v>
       </c>
       <c r="F17" t="n">
-        <v>216.045776664388</v>
+        <v>216.0457766643893</v>
       </c>
       <c r="G17" t="n">
-        <v>75.28442233813342</v>
+        <v>75.28442233813354</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J17" t="n">
         <v>147.0265863185274</v>
       </c>
       <c r="K17" t="n">
-        <v>438.175312267722</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="L17" t="n">
-        <v>725.250596185328</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="M17" t="n">
-        <v>725.250596185328</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="N17" t="n">
-        <v>725.250596185328</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="O17" t="n">
-        <v>725.250596185328</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="P17" t="n">
-        <v>1016.399322134523</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.102732543068</v>
+        <v>1114.10273254307</v>
       </c>
       <c r="W17" t="n">
-        <v>1026.291320364182</v>
+        <v>1026.291320364183</v>
       </c>
       <c r="X17" t="n">
-        <v>918.9846978491871</v>
+        <v>918.9846978491887</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.1663603885374</v>
+        <v>800.1663603885387</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>315.4888473038179</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="C18" t="n">
-        <v>315.4888473038179</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="D18" t="n">
-        <v>315.4888473038179</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="E18" t="n">
-        <v>311.936818560501</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="F18" t="n">
-        <v>177.2430205103754</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="G18" t="n">
-        <v>177.2430205103754</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H18" t="n">
-        <v>80.5043921699302</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J18" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K18" t="n">
-        <v>23.52716977367229</v>
+        <v>103.6976892906813</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6976892906808</v>
+        <v>394.8464152398763</v>
       </c>
       <c r="M18" t="n">
-        <v>394.8464152398755</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="N18" t="n">
-        <v>685.9951411890701</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="O18" t="n">
-        <v>977.1438671382647</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="P18" t="n">
-        <v>977.1438671382647</v>
+        <v>977.1438671382663</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R18" t="n">
-        <v>1137.141107753856</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S18" t="n">
-        <v>1137.141107753856</v>
+        <v>990.4945432429595</v>
       </c>
       <c r="T18" t="n">
-        <v>1137.141107753856</v>
+        <v>803.1446308506864</v>
       </c>
       <c r="U18" t="n">
-        <v>1137.141107753856</v>
+        <v>584.6716315628444</v>
       </c>
       <c r="V18" t="n">
-        <v>908.7454852021899</v>
+        <v>356.2760090111783</v>
       </c>
       <c r="W18" t="n">
-        <v>667.4296164355</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="X18" t="n">
-        <v>667.4296164355</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="Y18" t="n">
-        <v>474.9082900850788</v>
+        <v>151.9244144199012</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>505.3540700810938</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="C19" t="n">
-        <v>505.3540700810938</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="D19" t="n">
-        <v>352.2821769088566</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E19" t="n">
-        <v>352.2821769088566</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F19" t="n">
-        <v>199.8015219346337</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G19" t="n">
-        <v>199.8015219346337</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H19" t="n">
-        <v>199.8015219346337</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I19" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135981</v>
+        <v>88.75452017135984</v>
       </c>
       <c r="L19" t="n">
-        <v>229.8283602936759</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M19" t="n">
         <v>390.4883917441603</v>
@@ -5698,25 +5698,25 @@
         <v>768.1043737152128</v>
       </c>
       <c r="S19" t="n">
-        <v>559.2343972610864</v>
+        <v>768.1043737152128</v>
       </c>
       <c r="T19" t="n">
-        <v>529.2385271471252</v>
+        <v>536.1120138990854</v>
       </c>
       <c r="U19" t="n">
-        <v>516.7869536001824</v>
+        <v>523.6604403521425</v>
       </c>
       <c r="V19" t="n">
-        <v>516.7869536001824</v>
+        <v>262.9251359105651</v>
       </c>
       <c r="W19" t="n">
-        <v>505.3540700810938</v>
+        <v>251.4922523914764</v>
       </c>
       <c r="X19" t="n">
-        <v>505.3540700810938</v>
+        <v>207.0825384580522</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.3540700810938</v>
+        <v>207.0825384580522</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.846338834031</v>
+        <v>680.8463388340319</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303508</v>
+        <v>573.6360981303516</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210867</v>
+        <v>475.5356513210873</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907059</v>
+        <v>355.4734493907064</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643885</v>
+        <v>216.0457766643888</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813331</v>
+        <v>75.28442233813351</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J20" t="n">
-        <v>23.52716977367229</v>
+        <v>147.0265863185274</v>
       </c>
       <c r="K20" t="n">
-        <v>23.52716977367229</v>
+        <v>147.0265863185274</v>
       </c>
       <c r="L20" t="n">
-        <v>23.52716977367229</v>
+        <v>434.1018702361342</v>
       </c>
       <c r="M20" t="n">
-        <v>314.6758957228669</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="N20" t="n">
-        <v>605.8246216720615</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="O20" t="n">
-        <v>896.9733476212562</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="P20" t="n">
-        <v>1016.399322134523</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="V20" t="n">
-        <v>1114.102732543068</v>
+        <v>1114.10273254307</v>
       </c>
       <c r="W20" t="n">
-        <v>1026.291320364182</v>
+        <v>1026.291320364183</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491877</v>
+        <v>918.9846978491887</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885378</v>
+        <v>800.1663603885389</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>151.9244144199012</v>
+        <v>251.4585443671646</v>
       </c>
       <c r="C21" t="n">
-        <v>151.9244144199012</v>
+        <v>89.75487160811932</v>
       </c>
       <c r="D21" t="n">
-        <v>151.9244144199012</v>
+        <v>89.75487160811932</v>
       </c>
       <c r="E21" t="n">
-        <v>151.9244144199012</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F21" t="n">
-        <v>151.9244144199012</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G21" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H21" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J21" t="n">
-        <v>114.4548830157153</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K21" t="n">
-        <v>396.3714466953009</v>
+        <v>396.371446695301</v>
       </c>
       <c r="L21" t="n">
-        <v>687.5201726444955</v>
+        <v>396.371446695301</v>
       </c>
       <c r="M21" t="n">
-        <v>978.6688985936901</v>
+        <v>396.371446695301</v>
       </c>
       <c r="N21" t="n">
-        <v>1176.358488683615</v>
+        <v>687.5201726444959</v>
       </c>
       <c r="O21" t="n">
-        <v>1176.358488683615</v>
+        <v>885.2097627344212</v>
       </c>
       <c r="P21" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="R21" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="S21" t="n">
-        <v>1029.711924172717</v>
+        <v>1029.711924172718</v>
       </c>
       <c r="T21" t="n">
-        <v>842.3620117804436</v>
+        <v>1029.711924172718</v>
       </c>
       <c r="U21" t="n">
-        <v>819.5528938604626</v>
+        <v>1029.711924172718</v>
       </c>
       <c r="V21" t="n">
-        <v>591.1572713087966</v>
+        <v>801.3163016210522</v>
       </c>
       <c r="W21" t="n">
-        <v>349.8414025421066</v>
+        <v>801.3163016210522</v>
       </c>
       <c r="X21" t="n">
-        <v>151.9244144199012</v>
+        <v>603.3993134988467</v>
       </c>
       <c r="Y21" t="n">
-        <v>151.9244144199012</v>
+        <v>410.8779871484255</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>216.4307300902266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="C22" t="n">
-        <v>216.4307300902266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="D22" t="n">
-        <v>216.4307300902266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E22" t="n">
-        <v>216.4307300902266</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F22" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G22" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H22" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I22" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135981</v>
+        <v>88.75452017135984</v>
       </c>
       <c r="L22" t="n">
-        <v>229.8283602936759</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M22" t="n">
         <v>390.4883917441603</v>
@@ -5929,31 +5929,31 @@
         <v>783.3870097116665</v>
       </c>
       <c r="Q22" t="n">
-        <v>775.7740095613476</v>
+        <v>783.3870097116665</v>
       </c>
       <c r="R22" t="n">
-        <v>775.7740095613476</v>
+        <v>783.3870097116665</v>
       </c>
       <c r="S22" t="n">
-        <v>775.7740095613476</v>
+        <v>783.3870097116665</v>
       </c>
       <c r="T22" t="n">
-        <v>775.7740095613476</v>
+        <v>775.4227677155632</v>
       </c>
       <c r="U22" t="n">
-        <v>488.5989180508925</v>
+        <v>488.2476762051081</v>
       </c>
       <c r="V22" t="n">
-        <v>227.8636136093151</v>
+        <v>488.2476762051081</v>
       </c>
       <c r="W22" t="n">
-        <v>216.4307300902266</v>
+        <v>476.8147926860195</v>
       </c>
       <c r="X22" t="n">
-        <v>216.4307300902266</v>
+        <v>245.5623285813953</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.4307300902266</v>
+        <v>23.52716977367233</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340314</v>
+        <v>680.8463388340326</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303511</v>
+        <v>573.6360981303524</v>
       </c>
       <c r="D23" t="n">
-        <v>475.5356513210871</v>
+        <v>475.5356513210882</v>
       </c>
       <c r="E23" t="n">
-        <v>355.4734493907063</v>
+        <v>355.4734493907072</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643891</v>
+        <v>216.0457766643898</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813331</v>
+        <v>75.28442233813354</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0265863185274</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K23" t="n">
-        <v>147.0265863185274</v>
+        <v>314.6758957228676</v>
       </c>
       <c r="L23" t="n">
-        <v>147.0265863185274</v>
+        <v>314.6758957228676</v>
       </c>
       <c r="M23" t="n">
-        <v>147.0265863185274</v>
+        <v>314.6758957228676</v>
       </c>
       <c r="N23" t="n">
-        <v>438.175312267722</v>
+        <v>605.8246216720629</v>
       </c>
       <c r="O23" t="n">
-        <v>725.250596185328</v>
+        <v>896.9733476212582</v>
       </c>
       <c r="P23" t="n">
-        <v>1016.399322134523</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T23" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="U23" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.102732543068</v>
+        <v>1114.102732543071</v>
       </c>
       <c r="W23" t="n">
-        <v>1026.291320364182</v>
+        <v>1026.291320364184</v>
       </c>
       <c r="X23" t="n">
-        <v>918.9846978491877</v>
+        <v>918.9846978491895</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.1663603885381</v>
+        <v>800.1663603885396</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>297.0596048335859</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="C24" t="n">
-        <v>297.0596048335859</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="D24" t="n">
-        <v>158.2209678237979</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="E24" t="n">
-        <v>158.2209678237979</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="F24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="G24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="H24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J24" t="n">
-        <v>23.52716977367229</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K24" t="n">
-        <v>23.52716977367229</v>
+        <v>396.371446695301</v>
       </c>
       <c r="L24" t="n">
-        <v>314.6758957228669</v>
+        <v>687.5201726444961</v>
       </c>
       <c r="M24" t="n">
-        <v>605.8246216720615</v>
+        <v>687.5201726444961</v>
       </c>
       <c r="N24" t="n">
-        <v>896.9733476212562</v>
+        <v>687.5201726444961</v>
       </c>
       <c r="O24" t="n">
-        <v>1176.358488683615</v>
+        <v>885.2097627344219</v>
       </c>
       <c r="P24" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R24" t="n">
-        <v>1176.358488683615</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S24" t="n">
-        <v>1093.320830986328</v>
+        <v>990.4945432429604</v>
       </c>
       <c r="T24" t="n">
-        <v>905.9709185940545</v>
+        <v>803.1446308506873</v>
       </c>
       <c r="U24" t="n">
-        <v>687.4979193062125</v>
+        <v>584.6716315628453</v>
       </c>
       <c r="V24" t="n">
-        <v>687.4979193062125</v>
+        <v>457.3643648907835</v>
       </c>
       <c r="W24" t="n">
-        <v>687.4979193062125</v>
+        <v>216.0484961240935</v>
       </c>
       <c r="X24" t="n">
-        <v>489.580931184007</v>
+        <v>216.0484961240935</v>
       </c>
       <c r="Y24" t="n">
-        <v>297.0596048335859</v>
+        <v>23.52716977367234</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>233.5660446543235</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="C25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="D25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="E25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="F25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="G25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="H25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I25" t="n">
-        <v>63.95007511600376</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367229</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K25" t="n">
-        <v>88.75452017135981</v>
+        <v>88.75452017135986</v>
       </c>
       <c r="L25" t="n">
-        <v>229.8283602936759</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M25" t="n">
         <v>390.4883917441603</v>
@@ -6169,28 +6169,28 @@
         <v>768.1043737152128</v>
       </c>
       <c r="R25" t="n">
-        <v>768.1043737152128</v>
+        <v>671.8293317943375</v>
       </c>
       <c r="S25" t="n">
-        <v>559.2343972610864</v>
+        <v>462.9593553402111</v>
       </c>
       <c r="T25" t="n">
-        <v>327.242037444959</v>
+        <v>230.9669955240837</v>
       </c>
       <c r="U25" t="n">
-        <v>244.998928173412</v>
+        <v>218.5154219771408</v>
       </c>
       <c r="V25" t="n">
-        <v>244.998928173412</v>
+        <v>218.5154219771408</v>
       </c>
       <c r="W25" t="n">
-        <v>233.5660446543235</v>
+        <v>207.0825384580522</v>
       </c>
       <c r="X25" t="n">
-        <v>233.5660446543235</v>
+        <v>207.0825384580522</v>
       </c>
       <c r="Y25" t="n">
-        <v>233.5660446543235</v>
+        <v>207.0825384580522</v>
       </c>
     </row>
     <row r="26">
@@ -6206,70 +6206,70 @@
         <v>1530.85321702315</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246537</v>
+        <v>967.2734811246544</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189108</v>
+        <v>655.1372648189115</v>
       </c>
       <c r="G26" t="n">
         <v>341.6673669132305</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2015707693438</v>
+        <v>117.2015707693439</v>
       </c>
       <c r="I26" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J26" t="n">
-        <v>234.2362618785704</v>
+        <v>293.7520416570868</v>
       </c>
       <c r="K26" t="n">
-        <v>551.5630912352512</v>
+        <v>611.0788710137676</v>
       </c>
       <c r="L26" t="n">
-        <v>1095.189966302888</v>
+        <v>1095.189966302889</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.961705243898</v>
+        <v>1694.961705243899</v>
       </c>
       <c r="N26" t="n">
-        <v>2281.54968973776</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.777093349129</v>
+        <v>2788.77709334913</v>
       </c>
       <c r="P26" t="n">
         <v>3204.176584973218</v>
       </c>
       <c r="Q26" t="n">
-        <v>3464.120627916153</v>
+        <v>3464.120627916154</v>
       </c>
       <c r="R26" t="n">
         <v>3513.387435919411</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.281501043469</v>
+        <v>3442.28150104347</v>
       </c>
       <c r="T26" t="n">
         <v>3322.647701814403</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.826869052967</v>
+        <v>3169.826869052968</v>
       </c>
       <c r="V26" t="n">
-        <v>2934.862569332995</v>
+        <v>2934.862569332996</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.342613574683</v>
+        <v>2674.342613574684</v>
       </c>
       <c r="X26" t="n">
-        <v>2394.327447480263</v>
+        <v>2394.327447480264</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.800566440188</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>934.6449618634077</v>
+        <v>934.644961863408</v>
       </c>
       <c r="C27" t="n">
-        <v>772.9412891043625</v>
+        <v>772.9412891043627</v>
       </c>
       <c r="D27" t="n">
-        <v>634.1026520945745</v>
+        <v>634.1026520945748</v>
       </c>
       <c r="E27" t="n">
-        <v>487.0746421514458</v>
+        <v>487.0746421514459</v>
       </c>
       <c r="F27" t="n">
         <v>352.3808441013202</v>
@@ -6300,28 +6300,28 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J27" t="n">
-        <v>70.26774871838822</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="K27" t="n">
-        <v>113.0471667867994</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="L27" t="n">
-        <v>549.3622536785585</v>
+        <v>597.5105488521904</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.657895326535</v>
+        <v>1164.806190500167</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.363067575336</v>
+        <v>1513.148446029987</v>
       </c>
       <c r="O27" t="n">
-        <v>2181.808688164032</v>
+        <v>1982.594066618683</v>
       </c>
       <c r="P27" t="n">
-        <v>2545.901067556423</v>
+        <v>2346.686446011073</v>
       </c>
       <c r="Q27" t="n">
         <v>2545.901067556423</v>
@@ -6330,10 +6330,10 @@
         <v>2506.683686626664</v>
       </c>
       <c r="S27" t="n">
-        <v>2360.037122115766</v>
+        <v>2360.037122115767</v>
       </c>
       <c r="T27" t="n">
-        <v>2172.687209723493</v>
+        <v>2172.687209723494</v>
       </c>
       <c r="U27" t="n">
         <v>1954.214210435651</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107159</v>
+        <v>444.737463210716</v>
       </c>
       <c r="C28" t="n">
-        <v>377.136468056483</v>
+        <v>377.1364680564831</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0795492683326</v>
+        <v>326.0795492683327</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137383</v>
+        <v>276.0855094137384</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6198288236022</v>
+        <v>225.6198288236023</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9927679170312</v>
+        <v>158.9927679170313</v>
       </c>
       <c r="H28" t="n">
         <v>104.1042211529313</v>
       </c>
       <c r="I28" t="n">
-        <v>70.26774871838822</v>
+        <v>70.26774871838823</v>
       </c>
       <c r="J28" t="n">
-        <v>130.6341355862127</v>
+        <v>130.6341355862128</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777437</v>
+        <v>295.8463623777438</v>
       </c>
       <c r="L28" t="n">
         <v>536.9050788939034</v>
@@ -6397,37 +6397,37 @@
         <v>1057.609215596753</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.530111954949</v>
+        <v>1294.53011195495</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.403233887267</v>
+        <v>1490.403233887268</v>
       </c>
       <c r="Q28" t="n">
-        <v>1575.409598740986</v>
+        <v>1575.409598740987</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.389793439635</v>
+        <v>1540.389793439636</v>
       </c>
       <c r="S28" t="n">
         <v>1433.534791369596</v>
       </c>
       <c r="T28" t="n">
-        <v>1303.557405937555</v>
+        <v>1303.557405937556</v>
       </c>
       <c r="U28" t="n">
-        <v>1118.397288811187</v>
+        <v>1118.397288811188</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6769587536965</v>
+        <v>959.6769587536969</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551824</v>
+        <v>775.5355316551828</v>
       </c>
       <c r="X28" t="n">
-        <v>646.298041934645</v>
+        <v>646.2980419346454</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110088</v>
+        <v>526.277857511009</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306256</v>
+        <v>1810.772001306257</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.85321702315</v>
+        <v>1530.853217023151</v>
       </c>
       <c r="D29" t="n">
         <v>1260.044226634461</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246544</v>
+        <v>967.2734811246548</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1372648189116</v>
+        <v>655.1372648189117</v>
       </c>
       <c r="G29" t="n">
-        <v>341.667366913231</v>
+        <v>341.6673669132305</v>
       </c>
       <c r="H29" t="n">
         <v>117.2015707693439</v>
@@ -6461,28 +6461,28 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J29" t="n">
-        <v>234.2362618785714</v>
+        <v>283.5030698818286</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5479676290956</v>
+        <v>700.8147756323528</v>
       </c>
       <c r="L29" t="n">
-        <v>1195.174842696733</v>
+        <v>1144.456774306147</v>
       </c>
       <c r="M29" t="n">
-        <v>1794.946581637742</v>
+        <v>1744.228513247156</v>
       </c>
       <c r="N29" t="n">
-        <v>2381.534566131605</v>
+        <v>2330.816497741018</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.77709334913</v>
+        <v>2838.043901352387</v>
       </c>
       <c r="P29" t="n">
-        <v>3204.176584973218</v>
+        <v>3253.443392976476</v>
       </c>
       <c r="Q29" t="n">
-        <v>3464.120627916154</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="R29" t="n">
         <v>3513.387435919411</v>
@@ -6540,13 +6540,13 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J30" t="n">
-        <v>70.26774871838823</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="K30" t="n">
-        <v>352.1843123979738</v>
+        <v>443.1120256400168</v>
       </c>
       <c r="L30" t="n">
-        <v>352.1843123979738</v>
+        <v>879.4271125317759</v>
       </c>
       <c r="M30" t="n">
         <v>917.443273781186</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7374632107162</v>
+        <v>444.737463210716</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564833</v>
+        <v>377.1364680564831</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683327</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137385</v>
+        <v>276.0855094137384</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6198288236024</v>
+        <v>225.6198288236023</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170313</v>
       </c>
       <c r="H31" t="n">
         <v>104.1042211529313</v>
@@ -6619,52 +6619,52 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J31" t="n">
-        <v>130.6341355862126</v>
+        <v>130.634135586212</v>
       </c>
       <c r="K31" t="n">
-        <v>295.8463623777436</v>
+        <v>295.846362377743</v>
       </c>
       <c r="L31" t="n">
-        <v>536.9050788939032</v>
+        <v>536.9050788939027</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5499867382312</v>
+        <v>797.5499867382305</v>
       </c>
       <c r="N31" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O31" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954949</v>
       </c>
       <c r="P31" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q31" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740986</v>
       </c>
       <c r="R31" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439635</v>
       </c>
       <c r="S31" t="n">
         <v>1433.534791369596</v>
       </c>
       <c r="T31" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U31" t="n">
         <v>1118.397288811187</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536967</v>
+        <v>959.6769587536966</v>
       </c>
       <c r="W31" t="n">
-        <v>775.5355316551827</v>
+        <v>775.5355316551825</v>
       </c>
       <c r="X31" t="n">
-        <v>646.2980419346453</v>
+        <v>646.2980419346451</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2778575110092</v>
+        <v>526.277857511009</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>967.2734811246539</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1372648189111</v>
+        <v>655.137264818911</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6673669132306</v>
+        <v>341.6673669132305</v>
       </c>
       <c r="H32" t="n">
         <v>117.2015707693439</v>
@@ -6704,16 +6704,16 @@
         <v>711.0637474076111</v>
       </c>
       <c r="L32" t="n">
-        <v>1254.690622475248</v>
+        <v>1154.705746081405</v>
       </c>
       <c r="M32" t="n">
-        <v>1854.462361416258</v>
+        <v>1754.477485022414</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.05034591012</v>
+        <v>2341.065469516277</v>
       </c>
       <c r="O32" t="n">
-        <v>2888.761969742973</v>
+        <v>2788.777093349129</v>
       </c>
       <c r="P32" t="n">
         <v>3204.176584973218</v>
@@ -6792,10 +6792,10 @@
         <v>1669.583649506925</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.029270095621</v>
+        <v>1982.594066618683</v>
       </c>
       <c r="P33" t="n">
-        <v>2503.121649488012</v>
+        <v>2346.686446011073</v>
       </c>
       <c r="Q33" t="n">
         <v>2545.901067556423</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7374632107166</v>
+        <v>444.7374632107162</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564836</v>
+        <v>377.1364680564834</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0795492683332</v>
+        <v>326.0795492683329</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0855094137388</v>
+        <v>276.0855094137385</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236027</v>
+        <v>225.6198288236025</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170316</v>
+        <v>158.9927679170314</v>
       </c>
       <c r="H34" t="n">
         <v>104.1042211529314</v>
@@ -6856,52 +6856,52 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J34" t="n">
-        <v>130.6341355862129</v>
+        <v>130.6341355862126</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8463623777439</v>
+        <v>295.8463623777434</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939035</v>
+        <v>536.905078893903</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382313</v>
+        <v>797.5499867382307</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O34" t="n">
         <v>1294.53011195495</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740986</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439635</v>
       </c>
       <c r="S34" t="n">
         <v>1433.534791369596</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U34" t="n">
         <v>1118.397288811188</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536972</v>
+        <v>959.6769587536969</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551831</v>
+        <v>775.5355316551829</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2980419346458</v>
+        <v>646.2980419346453</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2778575110096</v>
+        <v>526.2778575110092</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1062.395470589659</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227415</v>
+        <v>871.185831122742</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347079</v>
+        <v>658.0144365347085</v>
       </c>
       <c r="F35" t="n">
-        <v>425.4775711507377</v>
+        <v>425.4775711507384</v>
       </c>
       <c r="G35" t="n">
-        <v>191.6070241668299</v>
+        <v>191.6070241668297</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J35" t="n">
         <v>170.239995489571</v>
@@ -6944,40 +6944,40 @@
         <v>931.2088235200456</v>
       </c>
       <c r="M35" t="n">
-        <v>1430.995686067211</v>
+        <v>967.8095301389141</v>
       </c>
       <c r="N35" t="n">
-        <v>1917.59879416723</v>
+        <v>1454.412638238933</v>
       </c>
       <c r="O35" t="n">
-        <v>2324.841321384756</v>
+        <v>1861.655165456458</v>
       </c>
       <c r="P35" t="n">
-        <v>2337.028947235796</v>
+        <v>2177.069780686703</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="T35" t="n">
         <v>2296.994498928502</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.77301708884</v>
+        <v>2223.773017088839</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.408068290641</v>
+        <v>2068.40806829064</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.487463454101</v>
+        <v>1887.4874634541</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281454</v>
+        <v>1687.071648281453</v>
       </c>
       <c r="Y35" t="n">
         <v>1475.144118163151</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>911.1177920897356</v>
+        <v>725.7728415427805</v>
       </c>
       <c r="C36" t="n">
-        <v>749.4141193306904</v>
+        <v>692.4368969344324</v>
       </c>
       <c r="D36" t="n">
-        <v>610.5754823209024</v>
+        <v>553.5982599246445</v>
       </c>
       <c r="E36" t="n">
-        <v>463.5474723777736</v>
+        <v>406.5702499815156</v>
       </c>
       <c r="F36" t="n">
-        <v>328.8536743276479</v>
+        <v>271.87645193139</v>
       </c>
       <c r="G36" t="n">
-        <v>200.456429681419</v>
+        <v>143.4792072851611</v>
       </c>
       <c r="H36" t="n">
-        <v>103.7178013409738</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J36" t="n">
-        <v>46.74057894471593</v>
+        <v>137.6682921867589</v>
       </c>
       <c r="K36" t="n">
-        <v>328.6571426243015</v>
+        <v>137.6682921867589</v>
       </c>
       <c r="L36" t="n">
-        <v>764.9722295160607</v>
+        <v>357.7806411658727</v>
       </c>
       <c r="M36" t="n">
-        <v>925.0762828138503</v>
+        <v>925.0762828138496</v>
       </c>
       <c r="N36" t="n">
-        <v>1503.49094725471</v>
+        <v>1503.490947254709</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.936567843406</v>
+        <v>1972.936567843405</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R36" t="n">
-        <v>2337.028947235796</v>
+        <v>2297.811566306037</v>
       </c>
       <c r="S36" t="n">
-        <v>2336.509952342094</v>
+        <v>2151.165001795139</v>
       </c>
       <c r="T36" t="n">
-        <v>2149.160039949821</v>
+        <v>1963.815089402866</v>
       </c>
       <c r="U36" t="n">
-        <v>1930.687040661979</v>
+        <v>1745.342090115024</v>
       </c>
       <c r="V36" t="n">
-        <v>1702.291418110313</v>
+        <v>1516.946467563358</v>
       </c>
       <c r="W36" t="n">
-        <v>1460.975549343623</v>
+        <v>1275.630598796668</v>
       </c>
       <c r="X36" t="n">
-        <v>1263.058561221418</v>
+        <v>1077.713610674463</v>
       </c>
       <c r="Y36" t="n">
-        <v>1070.537234870997</v>
+        <v>885.1922843240415</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="C37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="D37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="E37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="F37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="G37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424034</v>
@@ -7114,31 +7114,31 @@
         <v>806.6004188827101</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.3177828862564</v>
+        <v>806.6004188827101</v>
       </c>
       <c r="R37" t="n">
-        <v>654.2830032008185</v>
+        <v>806.6004188827101</v>
       </c>
       <c r="S37" t="n">
-        <v>627.0273520525516</v>
+        <v>597.7304424285837</v>
       </c>
       <c r="T37" t="n">
-        <v>576.6493175422836</v>
+        <v>547.352407918316</v>
       </c>
       <c r="U37" t="n">
-        <v>471.0885513376879</v>
+        <v>441.7916417137205</v>
       </c>
       <c r="V37" t="n">
-        <v>391.96757220197</v>
+        <v>362.6706625780027</v>
       </c>
       <c r="W37" t="n">
-        <v>287.4254960252285</v>
+        <v>258.1285864012614</v>
       </c>
       <c r="X37" t="n">
-        <v>237.7873572264638</v>
+        <v>208.4904476024967</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.3665237246003</v>
+        <v>48.68162232323613</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.714903950992</v>
+        <v>1262.71490395099</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589659</v>
+        <v>1062.395470589657</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227419</v>
+        <v>871.1858311227405</v>
       </c>
       <c r="E38" t="n">
-        <v>658.0144365347084</v>
+        <v>658.014436534707</v>
       </c>
       <c r="F38" t="n">
-        <v>425.4775711507383</v>
+        <v>425.4775711507369</v>
       </c>
       <c r="G38" t="n">
-        <v>191.6070241668298</v>
+        <v>191.6070241668297</v>
       </c>
       <c r="H38" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I38" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J38" t="n">
         <v>170.239995489571</v>
@@ -7178,46 +7178,46 @@
         <v>487.5668248462518</v>
       </c>
       <c r="L38" t="n">
-        <v>487.5668248462518</v>
+        <v>931.2088235200456</v>
       </c>
       <c r="M38" t="n">
-        <v>967.809530138915</v>
+        <v>1430.995686067211</v>
       </c>
       <c r="N38" t="n">
-        <v>1454.412638238934</v>
+        <v>1917.59879416723</v>
       </c>
       <c r="O38" t="n">
-        <v>1861.655165456459</v>
+        <v>2021.614332005551</v>
       </c>
       <c r="P38" t="n">
-        <v>2177.069780686704</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="Q38" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R38" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="S38" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.994498928503</v>
+        <v>2296.994498928501</v>
       </c>
       <c r="U38" t="n">
-        <v>2223.77301708884</v>
+        <v>2223.773017088839</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.408068290641</v>
+        <v>2068.408068290639</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.487463454101</v>
+        <v>1887.4874634541</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.071648281454</v>
+        <v>1687.071648281453</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.144118163151</v>
+        <v>1475.14411816315</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>911.1177920897356</v>
+        <v>854.1405696934777</v>
       </c>
       <c r="C39" t="n">
-        <v>749.4141193306904</v>
+        <v>692.4368969344324</v>
       </c>
       <c r="D39" t="n">
-        <v>610.5754823209024</v>
+        <v>553.5982599246445</v>
       </c>
       <c r="E39" t="n">
-        <v>463.5474723777736</v>
+        <v>406.5702499815156</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8536743276479</v>
+        <v>271.87645193139</v>
       </c>
       <c r="G39" t="n">
-        <v>200.456429681419</v>
+        <v>143.4792072851611</v>
       </c>
       <c r="H39" t="n">
-        <v>103.7178013409738</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I39" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J39" t="n">
-        <v>46.74057894471593</v>
+        <v>137.6682921867589</v>
       </c>
       <c r="K39" t="n">
-        <v>46.74057894471593</v>
+        <v>137.6682921867589</v>
       </c>
       <c r="L39" t="n">
-        <v>483.055665836475</v>
+        <v>573.9833790785181</v>
       </c>
       <c r="M39" t="n">
-        <v>1050.351307484452</v>
+        <v>1141.279020726495</v>
       </c>
       <c r="N39" t="n">
-        <v>1628.765971925312</v>
+        <v>1719.693685167354</v>
       </c>
       <c r="O39" t="n">
-        <v>2098.211592514007</v>
+        <v>1773.721946298055</v>
       </c>
       <c r="P39" t="n">
-        <v>2337.028947235796</v>
+        <v>2137.814325690445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R39" t="n">
-        <v>2297.811566306038</v>
+        <v>2297.811566306037</v>
       </c>
       <c r="S39" t="n">
-        <v>2297.811566306038</v>
+        <v>2151.165001795139</v>
       </c>
       <c r="T39" t="n">
-        <v>2149.160039949821</v>
+        <v>1963.815089402866</v>
       </c>
       <c r="U39" t="n">
-        <v>1930.687040661979</v>
+        <v>1745.342090115024</v>
       </c>
       <c r="V39" t="n">
-        <v>1702.291418110313</v>
+        <v>1516.946467563358</v>
       </c>
       <c r="W39" t="n">
-        <v>1460.975549343623</v>
+        <v>1403.998326947365</v>
       </c>
       <c r="X39" t="n">
-        <v>1263.058561221418</v>
+        <v>1206.08133882516</v>
       </c>
       <c r="Y39" t="n">
-        <v>1070.537234870997</v>
+        <v>1013.560012474739</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.7495931833971</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="C40" t="n">
-        <v>198.7495931833971</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="D40" t="n">
-        <v>198.7495931833971</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="E40" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="F40" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="G40" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="H40" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I40" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J40" t="n">
-        <v>46.74057894471593</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="K40" t="n">
         <v>111.9679293424034</v>
@@ -7369,13 +7369,13 @@
         <v>544.2849878838621</v>
       </c>
       <c r="W40" t="n">
-        <v>439.7429117071208</v>
+        <v>320.3549199297237</v>
       </c>
       <c r="X40" t="n">
-        <v>241.1114700637807</v>
+        <v>270.7167811309591</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.6906365619174</v>
+        <v>230.2959476290957</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1064.566702132425</v>
       </c>
       <c r="D41" t="n">
-        <v>872.944696984905</v>
+        <v>872.9446969849048</v>
       </c>
       <c r="E41" t="n">
-        <v>659.3609367162685</v>
+        <v>659.3609367162682</v>
       </c>
       <c r="F41" t="n">
-        <v>426.4117056516955</v>
+        <v>426.411705651695</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1287929871845</v>
+        <v>192.1287929871847</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="I41" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="K41" t="n">
-        <v>46.84998208446772</v>
+        <v>364.1768114411486</v>
       </c>
       <c r="L41" t="n">
-        <v>473.4928245793387</v>
+        <v>807.8188101149423</v>
       </c>
       <c r="M41" t="n">
-        <v>973.2796871265047</v>
+        <v>1307.605672662108</v>
       </c>
       <c r="N41" t="n">
         <v>1459.882795226524</v>
       </c>
       <c r="O41" t="n">
-        <v>1867.125322444049</v>
+        <v>1867.12532244405</v>
       </c>
       <c r="P41" t="n">
         <v>2182.539937674294</v>
@@ -7439,13 +7439,13 @@
         <v>2342.499104223386</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.052290235489</v>
+        <v>2302.05229023549</v>
       </c>
       <c r="U41" t="n">
-        <v>2228.418442715223</v>
+        <v>2228.418442715224</v>
       </c>
       <c r="V41" t="n">
-        <v>2072.641128236421</v>
+        <v>2072.641128236422</v>
       </c>
       <c r="W41" t="n">
         <v>1891.308157719279</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>911.2271952294874</v>
+        <v>877.8895630412696</v>
       </c>
       <c r="C42" t="n">
-        <v>749.5235224704421</v>
+        <v>716.1858902822244</v>
       </c>
       <c r="D42" t="n">
-        <v>610.6848854606542</v>
+        <v>577.3472532724364</v>
       </c>
       <c r="E42" t="n">
-        <v>463.6568755175254</v>
+        <v>430.3192433293077</v>
       </c>
       <c r="F42" t="n">
-        <v>328.9630774673997</v>
+        <v>295.625445279182</v>
       </c>
       <c r="G42" t="n">
-        <v>200.5658328211708</v>
+        <v>167.2282006329531</v>
       </c>
       <c r="H42" t="n">
         <v>103.8272044807256</v>
       </c>
       <c r="I42" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="J42" t="n">
-        <v>137.7776953265108</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="K42" t="n">
-        <v>419.6942590060963</v>
+        <v>328.7665457640533</v>
       </c>
       <c r="L42" t="n">
-        <v>856.0093458978554</v>
+        <v>361.896934299035</v>
       </c>
       <c r="M42" t="n">
-        <v>856.0093458978554</v>
+        <v>929.192575947012</v>
       </c>
       <c r="N42" t="n">
-        <v>1309.74648269695</v>
+        <v>1508.9611042423</v>
       </c>
       <c r="O42" t="n">
-        <v>1779.192103285645</v>
+        <v>1978.406724830996</v>
       </c>
       <c r="P42" t="n">
-        <v>2143.284482678036</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="Q42" t="n">
         <v>2342.499104223386</v>
       </c>
       <c r="R42" t="n">
-        <v>2342.499104223386</v>
+        <v>2303.281723293628</v>
       </c>
       <c r="S42" t="n">
-        <v>2336.619355481846</v>
+        <v>2303.281723293628</v>
       </c>
       <c r="T42" t="n">
-        <v>2149.269443089573</v>
+        <v>2115.931810901355</v>
       </c>
       <c r="U42" t="n">
-        <v>1930.796443801731</v>
+        <v>1897.458811613513</v>
       </c>
       <c r="V42" t="n">
-        <v>1702.400821250065</v>
+        <v>1669.063189061847</v>
       </c>
       <c r="W42" t="n">
-        <v>1461.084952483375</v>
+        <v>1427.747320295157</v>
       </c>
       <c r="X42" t="n">
-        <v>1263.167964361169</v>
+        <v>1229.830332172952</v>
       </c>
       <c r="Y42" t="n">
-        <v>1070.646638010748</v>
+        <v>1037.30900582253</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182.7014289030976</v>
+        <v>163.3514140976429</v>
       </c>
       <c r="C43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="D43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="E43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="F43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="G43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="H43" t="n">
-        <v>182.7014289030976</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="I43" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821552</v>
@@ -7588,31 +7588,31 @@
         <v>806.7098220224618</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.4271860260081</v>
+        <v>806.7098220224618</v>
       </c>
       <c r="R43" t="n">
-        <v>791.4271860260081</v>
+        <v>806.7098220224618</v>
       </c>
       <c r="S43" t="n">
-        <v>617.1898603737891</v>
+        <v>779.0418051935919</v>
       </c>
       <c r="T43" t="n">
-        <v>566.3994601829183</v>
+        <v>547.0494453774645</v>
       </c>
       <c r="U43" t="n">
-        <v>460.4263282977198</v>
+        <v>441.0763134922659</v>
       </c>
       <c r="V43" t="n">
-        <v>380.892983481399</v>
+        <v>361.5429686759449</v>
       </c>
       <c r="W43" t="n">
-        <v>275.9385416240548</v>
+        <v>256.5885268186005</v>
       </c>
       <c r="X43" t="n">
-        <v>225.8880371446872</v>
+        <v>206.5380223392327</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.0548379622209</v>
+        <v>165.7048231567663</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.298501174361</v>
+        <v>1265.29850117436</v>
       </c>
       <c r="C44" t="n">
-        <v>1064.566702132425</v>
+        <v>1064.566702132424</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849052</v>
+        <v>872.944696984905</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162685</v>
+        <v>659.3609367162682</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516955</v>
+        <v>426.411705651695</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1287929871846</v>
+        <v>192.1287929871847</v>
       </c>
       <c r="H44" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="I44" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84998208446772</v>
+        <v>170.3493986293228</v>
       </c>
       <c r="K44" t="n">
-        <v>46.84998208446772</v>
+        <v>487.6762279860037</v>
       </c>
       <c r="L44" t="n">
-        <v>473.4928245793387</v>
+        <v>931.3182266597973</v>
       </c>
       <c r="M44" t="n">
-        <v>973.2796871265047</v>
+        <v>973.2796871265051</v>
       </c>
       <c r="N44" t="n">
         <v>1459.882795226524</v>
       </c>
       <c r="O44" t="n">
-        <v>1867.125322444049</v>
+        <v>1867.12532244405</v>
       </c>
       <c r="P44" t="n">
         <v>2182.539937674294</v>
@@ -7676,7 +7676,7 @@
         <v>2342.499104223386</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.052290235489</v>
+        <v>2302.05229023549</v>
       </c>
       <c r="U44" t="n">
         <v>2228.418442715224</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.2271952294874</v>
+        <v>731.2429985303716</v>
       </c>
       <c r="C45" t="n">
-        <v>749.5235224704421</v>
+        <v>595.807671733739</v>
       </c>
       <c r="D45" t="n">
-        <v>610.6848854606542</v>
+        <v>456.9690347239511</v>
       </c>
       <c r="E45" t="n">
-        <v>463.6568755175254</v>
+        <v>309.9410247808223</v>
       </c>
       <c r="F45" t="n">
-        <v>328.9630774673997</v>
+        <v>175.2472267306966</v>
       </c>
       <c r="G45" t="n">
-        <v>200.5658328211708</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="H45" t="n">
-        <v>103.8272044807256</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="I45" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="J45" t="n">
-        <v>46.84998208446772</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="K45" t="n">
-        <v>46.84998208446772</v>
+        <v>162.6823127536851</v>
       </c>
       <c r="L45" t="n">
-        <v>162.6823127536848</v>
+        <v>162.6823127536851</v>
       </c>
       <c r="M45" t="n">
-        <v>729.9779544016617</v>
+        <v>729.977954401662</v>
       </c>
       <c r="N45" t="n">
         <v>1309.74648269695</v>
       </c>
       <c r="O45" t="n">
-        <v>1779.192103285645</v>
+        <v>1779.192103285646</v>
       </c>
       <c r="P45" t="n">
-        <v>2143.284482678036</v>
+        <v>2143.284482678037</v>
       </c>
       <c r="Q45" t="n">
         <v>2342.499104223386</v>
       </c>
       <c r="R45" t="n">
-        <v>2303.281723293627</v>
+        <v>2303.281723293628</v>
       </c>
       <c r="S45" t="n">
-        <v>2303.281723293627</v>
+        <v>2156.63515878273</v>
       </c>
       <c r="T45" t="n">
-        <v>2149.269443089573</v>
+        <v>1969.285246390457</v>
       </c>
       <c r="U45" t="n">
-        <v>1930.796443801731</v>
+        <v>1750.812247102615</v>
       </c>
       <c r="V45" t="n">
-        <v>1702.400821250065</v>
+        <v>1522.416624550949</v>
       </c>
       <c r="W45" t="n">
-        <v>1461.084952483375</v>
+        <v>1281.100755784259</v>
       </c>
       <c r="X45" t="n">
-        <v>1263.167964361169</v>
+        <v>1083.183767662054</v>
       </c>
       <c r="Y45" t="n">
-        <v>1070.646638010748</v>
+        <v>890.6624413116325</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>329.2707377264464</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="C46" t="n">
-        <v>329.2707377264464</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="D46" t="n">
-        <v>329.2707377264464</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="E46" t="n">
-        <v>329.2707377264464</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="F46" t="n">
-        <v>176.7900827522235</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="G46" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="H46" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="I46" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="J46" t="n">
-        <v>46.84998208446772</v>
+        <v>46.84998208446773</v>
       </c>
       <c r="K46" t="n">
         <v>112.0773324821552</v>
@@ -7825,31 +7825,31 @@
         <v>806.7098220224618</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.4271860260081</v>
+        <v>806.7098220224618</v>
       </c>
       <c r="R46" t="n">
-        <v>791.4271860260081</v>
+        <v>806.7098220224618</v>
       </c>
       <c r="S46" t="n">
-        <v>763.7591691971384</v>
+        <v>662.5403731804167</v>
       </c>
       <c r="T46" t="n">
-        <v>712.9687690062675</v>
+        <v>611.7499729895458</v>
       </c>
       <c r="U46" t="n">
-        <v>606.995637121069</v>
+        <v>505.7768411043471</v>
       </c>
       <c r="V46" t="n">
-        <v>527.4622923047481</v>
+        <v>426.2434962880262</v>
       </c>
       <c r="W46" t="n">
-        <v>422.5078504474037</v>
+        <v>321.2890544306817</v>
       </c>
       <c r="X46" t="n">
-        <v>372.457345968036</v>
+        <v>90.03659032605754</v>
       </c>
       <c r="Y46" t="n">
-        <v>331.6241467855697</v>
+        <v>49.20339114359109</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485237</v>
       </c>
       <c r="K11" t="n">
-        <v>100.85688547718</v>
+        <v>394.946507648084</v>
       </c>
       <c r="L11" t="n">
-        <v>94.83634793195556</v>
+        <v>215.4686454201039</v>
       </c>
       <c r="M11" t="n">
         <v>79.53237884657527</v>
       </c>
       <c r="N11" t="n">
-        <v>367.0077449856674</v>
+        <v>371.1223328963634</v>
       </c>
       <c r="O11" t="n">
-        <v>377.7737697139619</v>
+        <v>377.7737697139623</v>
       </c>
       <c r="P11" t="n">
-        <v>393.8273213491393</v>
+        <v>99.73769917823563</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,25 +8766,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.07217095056882</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L12" t="n">
-        <v>131.6758780812227</v>
+        <v>41.37013890282111</v>
       </c>
       <c r="M12" t="n">
         <v>32.39068222047777</v>
       </c>
       <c r="N12" t="n">
-        <v>21.42269043570947</v>
+        <v>315.5123126066135</v>
       </c>
       <c r="O12" t="n">
-        <v>331.923141686515</v>
+        <v>331.9231416865154</v>
       </c>
       <c r="P12" t="n">
-        <v>340.3211412084879</v>
+        <v>329.455288960979</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07871432485237</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>100.85688547718</v>
+        <v>394.9465076480842</v>
       </c>
       <c r="L14" t="n">
-        <v>215.4686454201036</v>
+        <v>252.296675727414</v>
       </c>
       <c r="M14" t="n">
-        <v>79.53237884657527</v>
+        <v>373.6220010174795</v>
       </c>
       <c r="N14" t="n">
-        <v>371.122332896363</v>
+        <v>77.03271072545941</v>
       </c>
       <c r="O14" t="n">
-        <v>377.7737697139619</v>
+        <v>83.68414754305833</v>
       </c>
       <c r="P14" t="n">
-        <v>393.8273213491393</v>
+        <v>393.8273213491398</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517226</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>72.07217095056882</v>
+        <v>72.07217095056886</v>
       </c>
       <c r="K15" t="n">
-        <v>59.04060237939704</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>335.4597610737248</v>
+        <v>332.9027685310721</v>
       </c>
       <c r="M15" t="n">
-        <v>326.4803043913814</v>
+        <v>32.39068222047787</v>
       </c>
       <c r="N15" t="n">
-        <v>102.4030131801625</v>
+        <v>315.5123126066136</v>
       </c>
       <c r="O15" t="n">
-        <v>37.83351951561133</v>
+        <v>331.9231416865155</v>
       </c>
       <c r="P15" t="n">
-        <v>340.3211412084879</v>
+        <v>46.23151903758433</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>71.8735836067554</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,22 +9164,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>394.9465076480836</v>
+        <v>390.8319197373888</v>
       </c>
       <c r="L17" t="n">
-        <v>384.8113821921637</v>
+        <v>94.83634793195556</v>
       </c>
       <c r="M17" t="n">
-        <v>79.53237884657527</v>
+        <v>373.6220010174794</v>
       </c>
       <c r="N17" t="n">
         <v>77.0327107254593</v>
       </c>
       <c r="O17" t="n">
-        <v>83.68414754305822</v>
+        <v>377.7737697139623</v>
       </c>
       <c r="P17" t="n">
-        <v>393.8273213491393</v>
+        <v>99.73769917823563</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9243,22 +9243,22 @@
         <v>72.07217095056882</v>
       </c>
       <c r="K18" t="n">
-        <v>59.04060237939704</v>
+        <v>140.0209251238505</v>
       </c>
       <c r="L18" t="n">
-        <v>122.3504616472742</v>
+        <v>335.4597610737252</v>
       </c>
       <c r="M18" t="n">
-        <v>326.4803043913814</v>
+        <v>326.4803043913819</v>
       </c>
       <c r="N18" t="n">
-        <v>315.5123126066131</v>
+        <v>21.42269043570947</v>
       </c>
       <c r="O18" t="n">
-        <v>331.923141686515</v>
+        <v>37.83351951561133</v>
       </c>
       <c r="P18" t="n">
-        <v>46.23151903758426</v>
+        <v>340.3211412084883</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07871432485237</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>100.85688547718</v>
       </c>
       <c r="L20" t="n">
-        <v>94.83634793195556</v>
+        <v>384.8113821921644</v>
       </c>
       <c r="M20" t="n">
-        <v>373.622001017479</v>
+        <v>373.6220010174794</v>
       </c>
       <c r="N20" t="n">
-        <v>371.122332896363</v>
+        <v>77.0327107254593</v>
       </c>
       <c r="O20" t="n">
-        <v>377.7737697139619</v>
+        <v>83.68414754305822</v>
       </c>
       <c r="P20" t="n">
-        <v>220.3699966663836</v>
+        <v>393.8273213491397</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9483,19 +9483,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>335.4597610737248</v>
+        <v>41.37013890282111</v>
       </c>
       <c r="M21" t="n">
-        <v>326.4803043913814</v>
+        <v>32.39068222047777</v>
       </c>
       <c r="N21" t="n">
-        <v>221.109145071997</v>
+        <v>315.5123126066135</v>
       </c>
       <c r="O21" t="n">
-        <v>37.83351951561133</v>
+        <v>237.5199741518995</v>
       </c>
       <c r="P21" t="n">
-        <v>46.23151903758426</v>
+        <v>340.3211412084883</v>
       </c>
       <c r="Q21" t="n">
         <v>71.87358360675535</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485237</v>
       </c>
       <c r="K23" t="n">
-        <v>100.85688547718</v>
+        <v>394.9465076480843</v>
       </c>
       <c r="L23" t="n">
         <v>94.83634793195556</v>
@@ -9647,16 +9647,16 @@
         <v>79.53237884657527</v>
       </c>
       <c r="N23" t="n">
-        <v>371.122332896363</v>
+        <v>371.1223328963636</v>
       </c>
       <c r="O23" t="n">
-        <v>373.6591818032663</v>
+        <v>377.7737697139625</v>
       </c>
       <c r="P23" t="n">
-        <v>393.8273213491393</v>
+        <v>381.9449123725377</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517225</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,25 +9714,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>72.07217095056882</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.04060237939704</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>335.4597610737248</v>
+        <v>335.4597610737254</v>
       </c>
       <c r="M24" t="n">
-        <v>326.4803043913814</v>
+        <v>32.39068222047777</v>
       </c>
       <c r="N24" t="n">
-        <v>315.5123126066131</v>
+        <v>21.42269043570947</v>
       </c>
       <c r="O24" t="n">
-        <v>320.0407327099129</v>
+        <v>237.5199741519</v>
       </c>
       <c r="P24" t="n">
-        <v>46.23151903758426</v>
+        <v>340.3211412084885</v>
       </c>
       <c r="Q24" t="n">
         <v>71.87358360675535</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.07217095056882</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2521357818326</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>373.2835546072444</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.87358360675535</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.07217095056883</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>41.37013890282113</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>603.3593300823082</v>
+        <v>70.79084509866975</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10440,13 +10440,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>354.0056580123359</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.0851170091911</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>116.502789572705</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>112.0484323611049</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>114.4345721517225</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>72.07217095056882</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>263.7058449423299</v>
       </c>
       <c r="M36" t="n">
-        <v>194.111948177841</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>605.6799272446586</v>
+        <v>605.6799272446584</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10826,22 +10826,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>94.83634793195556</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>564.626020556336</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>188.7503473797454</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517225</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.07217095056882</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>59.04060237939704</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>605.6799272446585</v>
+        <v>605.6799272446583</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>92.40752065773277</v>
       </c>
       <c r="P39" t="n">
-        <v>287.4611702717144</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.87358360675535</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,16 +11060,16 @@
         <v>95.07871432485237</v>
       </c>
       <c r="K41" t="n">
-        <v>100.85688547718</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>525.7887140883909</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>230.847986043051</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056882</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>74.83517782704506</v>
       </c>
       <c r="M42" t="n">
-        <v>32.39068222047777</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.7430306368148</v>
+        <v>607.0474664915561</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675535</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07871432485237</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>100.85688547718</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>525.7887140883909</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>121.9176924493104</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.07217095056882</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>59.04060237939704</v>
+        <v>84.19678159876504</v>
       </c>
       <c r="L45" t="n">
-        <v>158.3724931141514</v>
+        <v>41.37013890282111</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23258,22 +23258,22 @@
         <v>218.7134039554107</v>
       </c>
       <c r="C11" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7060249576205</v>
+        <v>26.34841774538282</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>219.448162527526</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.2921949994189</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>162.2197811955899</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5198806735468</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>189.083417066847</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E14" t="n">
-        <v>219.4481625275259</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G14" t="n">
-        <v>147.9213267937716</v>
+        <v>239.9403233994415</v>
       </c>
       <c r="H14" t="n">
-        <v>151.8262626552654</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>48.04258570959356</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.8977489066389</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>162.2197811955898</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>206.8201389062933</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>218.2167367024921</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-2.376881533027373e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>949463.8016101684</v>
+        <v>949463.8016101688</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949463.8016101687</v>
+        <v>949463.8016101688</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1069926.948018826</v>
+        <v>1069926.948018827</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1069926.948018826</v>
+        <v>1069926.948018827</v>
       </c>
     </row>
     <row r="10">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402085.2315413348</v>
+        <v>402085.2315413345</v>
       </c>
       <c r="C2" t="n">
-        <v>402085.2315413349</v>
+        <v>402085.2315413347</v>
       </c>
       <c r="D2" t="n">
         <v>402085.2315413348</v>
       </c>
       <c r="E2" t="n">
+        <v>351375.5690128781</v>
+      </c>
+      <c r="F2" t="n">
         <v>351375.569012878</v>
       </c>
-      <c r="F2" t="n">
-        <v>351375.5690128781</v>
-      </c>
       <c r="G2" t="n">
-        <v>403002.6317594458</v>
+        <v>403002.6317594456</v>
       </c>
       <c r="H2" t="n">
-        <v>403002.6317594458</v>
+        <v>403002.6317594456</v>
       </c>
       <c r="I2" t="n">
         <v>403002.6317594458</v>
@@ -26341,19 +26341,19 @@
         <v>403002.6317594462</v>
       </c>
       <c r="L2" t="n">
-        <v>403002.6317594461</v>
+        <v>403002.631759446</v>
       </c>
       <c r="M2" t="n">
+        <v>403002.6317594458</v>
+      </c>
+      <c r="N2" t="n">
+        <v>403002.6317594458</v>
+      </c>
+      <c r="O2" t="n">
         <v>403002.6317594455</v>
       </c>
-      <c r="N2" t="n">
-        <v>403002.6317594457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403002.6317594459</v>
-      </c>
       <c r="P2" t="n">
-        <v>403002.6317594458</v>
+        <v>403002.6317594454</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.9880429466</v>
+        <v>347410.9880429467</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>80469.26609315911</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>153193.9940866782</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315908</v>
+        <v>80469.26609315909</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004403</v>
+        <v>63042.68593004405</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873051116</v>
+        <v>329.0996873051937</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>424293.6514672661</v>
       </c>
       <c r="E4" t="n">
-        <v>312560.3075442405</v>
+        <v>312560.3075442406</v>
       </c>
       <c r="F4" t="n">
-        <v>312560.3075442405</v>
+        <v>312560.3075442406</v>
       </c>
       <c r="G4" t="n">
         <v>368687.9792090663</v>
@@ -26439,22 +26439,22 @@
         <v>368687.9792090664</v>
       </c>
       <c r="J4" t="n">
+        <v>358899.8032199902</v>
+      </c>
+      <c r="K4" t="n">
         <v>358899.8032199901</v>
-      </c>
-      <c r="K4" t="n">
-        <v>358899.8032199902</v>
       </c>
       <c r="L4" t="n">
         <v>358899.8032199901</v>
       </c>
       <c r="M4" t="n">
-        <v>360570.8158019183</v>
+        <v>360570.8158019184</v>
       </c>
       <c r="N4" t="n">
         <v>360570.8158019184</v>
       </c>
       <c r="O4" t="n">
-        <v>360532.5601904278</v>
+        <v>360532.5601904277</v>
       </c>
       <c r="P4" t="n">
         <v>360532.5601904277</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501295</v>
+        <v>35612.93854501298</v>
       </c>
       <c r="F5" t="n">
-        <v>35612.93854501295</v>
+        <v>35612.93854501297</v>
       </c>
       <c r="G5" t="n">
-        <v>44069.15195899519</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="H5" t="n">
         <v>44069.15195899521</v>
       </c>
       <c r="I5" t="n">
-        <v>44069.15195899521</v>
+        <v>44069.15195899523</v>
       </c>
       <c r="J5" t="n">
-        <v>65217.75175230237</v>
+        <v>65217.75175230238</v>
       </c>
       <c r="K5" t="n">
         <v>65217.75175230238</v>
@@ -26503,7 +26503,7 @@
         <v>53962.02217862751</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.02217862751</v>
+        <v>53962.0221786275</v>
       </c>
       <c r="O5" t="n">
         <v>54010.84806614029</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55836.01992593137</v>
+        <v>-55840.3884983988</v>
       </c>
       <c r="C6" t="n">
-        <v>-55836.01992593126</v>
+        <v>-55840.38849839869</v>
       </c>
       <c r="D6" t="n">
-        <v>-55836.01992593137</v>
+        <v>-55840.38849839857</v>
       </c>
       <c r="E6" t="n">
-        <v>-344208.6651193221</v>
+        <v>-344454.5082752582</v>
       </c>
       <c r="F6" t="n">
-        <v>3202.322923624612</v>
+        <v>2956.479767688378</v>
       </c>
       <c r="G6" t="n">
-        <v>-90223.76550177477</v>
+        <v>-90223.76550177491</v>
       </c>
       <c r="H6" t="n">
-        <v>-9754.499408615869</v>
+        <v>-9754.499408615819</v>
       </c>
       <c r="I6" t="n">
-        <v>-9754.499408615811</v>
+        <v>-9754.499408615833</v>
       </c>
       <c r="J6" t="n">
-        <v>-174308.9172995245</v>
+        <v>-174308.9172995246</v>
       </c>
       <c r="K6" t="n">
-        <v>-21114.92321284637</v>
+        <v>-21114.92321284631</v>
       </c>
       <c r="L6" t="n">
-        <v>-101584.1893060055</v>
+        <v>-101584.1893060056</v>
       </c>
       <c r="M6" t="n">
-        <v>-74572.89215114441</v>
+        <v>-74572.89215114411</v>
       </c>
       <c r="N6" t="n">
-        <v>-11530.20622110031</v>
+        <v>-11530.20622110012</v>
       </c>
       <c r="O6" t="n">
-        <v>-11869.87618442727</v>
+        <v>-11869.87618442773</v>
       </c>
       <c r="P6" t="n">
-        <v>-11540.77649712216</v>
+        <v>-11540.77649712257</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>171.3897001674282</v>
       </c>
       <c r="F2" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="G2" t="n">
         <v>271.9762827838771</v>
       </c>
       <c r="H2" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="I2" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="J2" t="n">
         <v>100.994824640246</v>
@@ -26716,16 +26716,16 @@
         <v>100.9948246402459</v>
       </c>
       <c r="M2" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="N2" t="n">
         <v>179.798182052801</v>
       </c>
       <c r="O2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="P2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>152.4646244791966</v>
       </c>
       <c r="F3" t="n">
-        <v>152.4646244791966</v>
+        <v>152.4646244791964</v>
       </c>
       <c r="G3" t="n">
         <v>152.4646244791966</v>
@@ -26762,7 +26762,7 @@
         <v>152.4646244791966</v>
       </c>
       <c r="K3" t="n">
-        <v>152.4646244791965</v>
+        <v>152.4646244791966</v>
       </c>
       <c r="L3" t="n">
         <v>152.4646244791966</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="F4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="G4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="H4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="I4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="J4" t="n">
-        <v>878.3468589798528</v>
+        <v>878.3468589798529</v>
       </c>
       <c r="K4" t="n">
         <v>878.3468589798529</v>
@@ -26820,16 +26820,16 @@
         <v>878.3468589798529</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="N4" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="O4" t="n">
-        <v>585.6247760558465</v>
+        <v>585.6247760558466</v>
       </c>
       <c r="P4" t="n">
-        <v>585.6247760558465</v>
+        <v>585.6247760558466</v>
       </c>
     </row>
   </sheetData>
@@ -26917,31 +26917,31 @@
         <v>171.3897001674282</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>100.5865826164489</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4082420237969302</v>
+        <v>0.4082420237970723</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>100.5865826164489</v>
       </c>
       <c r="M2" t="n">
-        <v>78.80335741255504</v>
+        <v>78.80335741255506</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089486</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246897422</v>
+        <v>1.367539246897763</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>100.5865826164489</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4082420237969302</v>
+        <v>0.4082420237970723</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28175,16 +28175,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>99.22789978421963</v>
       </c>
       <c r="G12" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I12" t="n">
         <v>56.40745017229533</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>145.180098865789</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>168.3848044948738</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>92.20643557850124</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
@@ -28263,13 +28263,13 @@
         <v>166.9556149377512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I13" t="n">
-        <v>114.2514653831039</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.01867628890815</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.12980963648917</v>
       </c>
       <c r="R13" t="n">
         <v>135.6644318885835</v>
@@ -28305,7 +28305,7 @@
         <v>171.3897001674282</v>
       </c>
       <c r="V13" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>171.3897001674282</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="D14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="E14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="F14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="G14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="H14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="I14" t="n">
-        <v>147.459308470692</v>
+        <v>147.4593084706921</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.23037211170284</v>
+        <v>51.23037211170288</v>
       </c>
       <c r="S14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="T14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="U14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28421,10 +28421,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.21673358561587</v>
       </c>
       <c r="I15" t="n">
-        <v>56.40745017229533</v>
+        <v>56.40745017229534</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>145.180098865789</v>
@@ -28460,16 +28460,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>171.3897001674283</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>171.3897001674283</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>148.9742611548927</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X15" t="n">
-        <v>171.3897001674283</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28506,7 +28506,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>40.01867628890817</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>15.1298096364892</v>
       </c>
       <c r="R16" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S16" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="U16" t="n">
-        <v>167.2034474308114</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V16" t="n">
-        <v>171.3897001674283</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X16" t="n">
-        <v>171.3897001674283</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.3897001674283</v>
+        <v>112.054961505415</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -28649,19 +28649,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>142.0412213878138</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,25 +28691,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2882692949636</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>36.59463143365875</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28719,19 +28719,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.9556149377512</v>
@@ -28740,10 +28740,10 @@
         <v>155.3344859367049</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.01867628890815</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,22 +28770,22 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T19" t="n">
-        <v>199.9765248051445</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>271.9762827838771</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>271.9762827838771</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>184.974322669488</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="E20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="F20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="G20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="H20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="I20" t="n">
         <v>147.459308470692</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="W20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
     </row>
     <row r="21">
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>79.99230502759495</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H21" t="n">
         <v>95.77124205704072</v>
@@ -28931,22 +28931,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
-        <v>193.7072425541825</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>166.9556149377512</v>
@@ -28980,7 +28980,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.01867628890815</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.59293948767352</v>
+        <v>15.12980963648917</v>
       </c>
       <c r="R22" t="n">
         <v>135.6644318885835</v>
@@ -29010,22 +29010,22 @@
         <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6724362179661</v>
+        <v>221.7878366418238</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="E23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="F23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="G23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="H23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="I23" t="n">
         <v>147.459308470692</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="W23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
     </row>
     <row r="24">
@@ -29120,13 +29120,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1132721997666</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.97281774547476</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29174,13 +29174,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>100.0774723208082</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29217,7 +29217,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.01867628890815</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6644318885835</v>
+        <v>40.35214038691694</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29250,13 +29250,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>202.882662416519</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.9762827838773</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -29296,13 +29296,13 @@
         <v>100.994824640246</v>
       </c>
       <c r="J26" t="n">
-        <v>40.87787536901726</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>100.994824640246</v>
+        <v>40.87787536901828</v>
       </c>
       <c r="M26" t="n">
         <v>100.994824640246</v>
@@ -29469,7 +29469,7 @@
         <v>100.994824640246</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9948246402453</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P28" t="n">
         <v>100.994824640246</v>
@@ -29533,13 +29533,13 @@
         <v>100.994824640246</v>
       </c>
       <c r="J29" t="n">
-        <v>40.87787536901823</v>
+        <v>90.64232789756085</v>
       </c>
       <c r="K29" t="n">
         <v>100.994824640246</v>
       </c>
       <c r="L29" t="n">
-        <v>100.994824640246</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>100.994824640246</v>
@@ -29548,7 +29548,7 @@
         <v>100.994824640246</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P29" t="n">
         <v>100.994824640246</v>
@@ -29557,7 +29557,7 @@
         <v>100.994824640246</v>
       </c>
       <c r="R29" t="n">
-        <v>100.994824640246</v>
+        <v>51.23037211170284</v>
       </c>
       <c r="S29" t="n">
         <v>100.994824640246</v>
@@ -29691,7 +29691,7 @@
         <v>100.994824640246</v>
       </c>
       <c r="J31" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402453</v>
       </c>
       <c r="K31" t="n">
         <v>100.994824640246</v>
@@ -29776,7 +29776,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="L32" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>100.9948246402459</v>
@@ -29788,7 +29788,7 @@
         <v>40.87787536901726</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="Q32" t="n">
         <v>100.9948246402459</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="C35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="D35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="E35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="F35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="G35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="H35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="I35" t="n">
         <v>147.459308470692</v>
@@ -30037,22 +30037,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="U35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="V35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="W35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="X35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>127.0840508691902</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>144.6662939210238</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.60012966545048</v>
+        <v>179.798182052801</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.12980963648917</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S37" t="n">
-        <v>179.7981820528009</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="U37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="V37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="W37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="X37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.798182052801</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.7981820528009</v>
+        <v>61.60407019317768</v>
       </c>
     </row>
     <row r="38">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,10 +30350,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>38.31140217569603</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>127.0840508691902</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30441,10 +30441,10 @@
         <v>179.798182052801</v>
       </c>
       <c r="W40" t="n">
+        <v>61.60407019317793</v>
+      </c>
+      <c r="X40" t="n">
         <v>179.798182052801</v>
-      </c>
-      <c r="X40" t="n">
-        <v>32.29481223667133</v>
       </c>
       <c r="Y40" t="n">
         <v>179.798182052801</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="C41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="D41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="E41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="F41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="G41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="H41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="I41" t="n">
         <v>147.459308470692</v>
@@ -30511,22 +30511,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="U41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="V41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="W41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="X41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>33.00425586633551</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>139.3591476116645</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>52.58339214989307</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30636,7 +30636,7 @@
         <v>155.3344859367049</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J43" t="n">
         <v>40.01867628890815</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.12980963648917</v>
       </c>
       <c r="R43" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S43" t="n">
-        <v>34.28632429388819</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="T43" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="V43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="W43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="X43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="C44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="D44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="E44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="F44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="G44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="H44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="I44" t="n">
         <v>147.459308470692</v>
@@ -30748,22 +30748,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="U44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="V44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="W44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="X44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="Y44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>26.0056625027886</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,10 +30824,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>33.00425586633668</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30864,10 +30864,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>38.31491527667302</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H46" t="n">
         <v>155.3344859367049</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.12980963648917</v>
       </c>
       <c r="R46" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S46" t="n">
-        <v>179.389940029004</v>
+        <v>64.05352233596042</v>
       </c>
       <c r="T46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="U46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="V46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="W46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
       <c r="X46" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290039</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6129231134842069</v>
+        <v>0.6129231134842061</v>
       </c>
       <c r="H14" t="n">
-        <v>6.277098835970135</v>
+        <v>6.277098835970128</v>
       </c>
       <c r="I14" t="n">
-        <v>23.62971833259991</v>
+        <v>23.62971833259988</v>
       </c>
       <c r="J14" t="n">
-        <v>52.02108310308025</v>
+        <v>52.02108310308019</v>
       </c>
       <c r="K14" t="n">
-        <v>77.96611849686674</v>
+        <v>77.96611849686666</v>
       </c>
       <c r="L14" t="n">
-        <v>96.72386423115906</v>
+        <v>96.72386423115896</v>
       </c>
       <c r="M14" t="n">
-        <v>107.6239356505838</v>
+        <v>107.6239356505837</v>
       </c>
       <c r="N14" t="n">
-        <v>109.3654034467708</v>
+        <v>109.3654034467707</v>
       </c>
       <c r="O14" t="n">
-        <v>103.2706492370622</v>
+        <v>103.2706492370621</v>
       </c>
       <c r="P14" t="n">
-        <v>88.13910987292087</v>
+        <v>88.13910987292077</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.18880087126769</v>
+        <v>66.18880087126762</v>
       </c>
       <c r="R14" t="n">
-        <v>38.50153152740234</v>
+        <v>38.5015315274023</v>
       </c>
       <c r="S14" t="n">
-        <v>13.96698544852138</v>
+        <v>13.96698544852136</v>
       </c>
       <c r="T14" t="n">
-        <v>2.683070929277117</v>
+        <v>2.683070929277114</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04903384907873654</v>
+        <v>0.04903384907873649</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3279427771816681</v>
+        <v>0.3279427771816678</v>
       </c>
       <c r="H15" t="n">
-        <v>3.167236821728216</v>
+        <v>3.167236821728213</v>
       </c>
       <c r="I15" t="n">
-        <v>11.29101228454428</v>
+        <v>11.29101228454426</v>
       </c>
       <c r="J15" t="n">
-        <v>30.98340071609787</v>
+        <v>30.98340071609783</v>
       </c>
       <c r="K15" t="n">
-        <v>52.95556678726963</v>
+        <v>52.95556678726957</v>
       </c>
       <c r="L15" t="n">
-        <v>71.20529466832667</v>
+        <v>71.20529466832659</v>
       </c>
       <c r="M15" t="n">
-        <v>83.09322034116212</v>
+        <v>83.09322034116202</v>
       </c>
       <c r="N15" t="n">
-        <v>85.29245063199885</v>
+        <v>85.29245063199876</v>
       </c>
       <c r="O15" t="n">
-        <v>78.02592909549978</v>
+        <v>78.02592909549969</v>
       </c>
       <c r="P15" t="n">
-        <v>62.62268698655907</v>
+        <v>62.622686986559</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.86160783813715</v>
+        <v>41.8616078381371</v>
       </c>
       <c r="R15" t="n">
-        <v>20.36121909554252</v>
+        <v>20.3612190955425</v>
       </c>
       <c r="S15" t="n">
-        <v>6.091393251598086</v>
+        <v>6.091393251598078</v>
       </c>
       <c r="T15" t="n">
-        <v>1.321839527324355</v>
+        <v>1.321839527324353</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02157518270932028</v>
+        <v>0.02157518270932025</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2749362080772397</v>
+        <v>0.2749362080772394</v>
       </c>
       <c r="H16" t="n">
-        <v>2.444432831814006</v>
+        <v>2.444432831814003</v>
       </c>
       <c r="I16" t="n">
-        <v>8.26808160290463</v>
+        <v>8.268081602904619</v>
       </c>
       <c r="J16" t="n">
-        <v>19.43798991106085</v>
+        <v>19.43798991106082</v>
       </c>
       <c r="K16" t="n">
-        <v>31.94258853842839</v>
+        <v>31.94258853842835</v>
       </c>
       <c r="L16" t="n">
-        <v>40.87551588086526</v>
+        <v>40.87551588086522</v>
       </c>
       <c r="M16" t="n">
-        <v>43.09750032614403</v>
+        <v>43.09750032614398</v>
       </c>
       <c r="N16" t="n">
-        <v>42.07273809603799</v>
+        <v>42.07273809603794</v>
       </c>
       <c r="O16" t="n">
-        <v>38.86098330168113</v>
+        <v>38.86098330168109</v>
       </c>
       <c r="P16" t="n">
-        <v>33.25228465690541</v>
+        <v>33.25228465690537</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02215829635868</v>
+        <v>23.02215829635866</v>
       </c>
       <c r="R16" t="n">
-        <v>12.36213168318207</v>
+        <v>12.36213168318205</v>
       </c>
       <c r="S16" t="n">
-        <v>4.791388280764258</v>
+        <v>4.791388280764252</v>
       </c>
       <c r="T16" t="n">
-        <v>1.174727434511842</v>
+        <v>1.174727434511841</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01499652044057673</v>
+        <v>0.01499652044057671</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842067</v>
+        <v>0.6129231134842069</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970134</v>
+        <v>6.277098835970135</v>
       </c>
       <c r="I29" t="n">
-        <v>23.6297183325999</v>
+        <v>23.62971833259991</v>
       </c>
       <c r="J29" t="n">
-        <v>52.02108310308024</v>
+        <v>52.02108310308025</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686673</v>
+        <v>77.96611849686674</v>
       </c>
       <c r="L29" t="n">
-        <v>96.72386423115904</v>
+        <v>96.72386423115906</v>
       </c>
       <c r="M29" t="n">
         <v>107.6239356505838</v>
@@ -33199,10 +33199,10 @@
         <v>103.2706492370622</v>
       </c>
       <c r="P29" t="n">
-        <v>88.13910987292086</v>
+        <v>88.13910987292087</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126767</v>
+        <v>66.18880087126769</v>
       </c>
       <c r="R29" t="n">
         <v>38.50153152740234</v>
@@ -33211,10 +33211,10 @@
         <v>13.96698544852138</v>
       </c>
       <c r="T29" t="n">
-        <v>2.683070929277116</v>
+        <v>2.683070929277117</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04903384907873653</v>
+        <v>0.04903384907873654</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.327942777181668</v>
+        <v>0.3279427771816681</v>
       </c>
       <c r="H30" t="n">
         <v>3.167236821728216</v>
       </c>
       <c r="I30" t="n">
-        <v>11.29101228454427</v>
+        <v>11.29101228454428</v>
       </c>
       <c r="J30" t="n">
-        <v>30.98340071609786</v>
+        <v>30.98340071609787</v>
       </c>
       <c r="K30" t="n">
-        <v>52.95556678726962</v>
+        <v>52.95556678726963</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832666</v>
+        <v>71.20529466832667</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116211</v>
+        <v>83.09322034116212</v>
       </c>
       <c r="N30" t="n">
-        <v>85.29245063199883</v>
+        <v>85.29245063199885</v>
       </c>
       <c r="O30" t="n">
-        <v>78.02592909549976</v>
+        <v>78.02592909549978</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655905</v>
+        <v>62.62268698655907</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.86160783813714</v>
+        <v>41.86160783813715</v>
       </c>
       <c r="R30" t="n">
         <v>20.36121909554252</v>
       </c>
       <c r="S30" t="n">
-        <v>6.091393251598085</v>
+        <v>6.091393251598086</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321839527324354</v>
+        <v>1.321839527324355</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02157518270932027</v>
+        <v>0.02157518270932028</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2749362080772396</v>
+        <v>0.2749362080772397</v>
       </c>
       <c r="H31" t="n">
-        <v>2.444432831814005</v>
+        <v>2.444432831814006</v>
       </c>
       <c r="I31" t="n">
-        <v>8.268081602904628</v>
+        <v>8.26808160290463</v>
       </c>
       <c r="J31" t="n">
-        <v>19.43798991106084</v>
+        <v>19.43798991106085</v>
       </c>
       <c r="K31" t="n">
-        <v>31.94258853842838</v>
+        <v>31.94258853842839</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086525</v>
+        <v>40.87551588086526</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09750032614402</v>
+        <v>43.09750032614403</v>
       </c>
       <c r="N31" t="n">
-        <v>42.07273809603798</v>
+        <v>42.07273809603799</v>
       </c>
       <c r="O31" t="n">
-        <v>38.86098330168112</v>
+        <v>38.86098330168113</v>
       </c>
       <c r="P31" t="n">
         <v>33.25228465690541</v>
@@ -33363,10 +33363,10 @@
         <v>23.02215829635868</v>
       </c>
       <c r="R31" t="n">
-        <v>12.36213168318206</v>
+        <v>12.36213168318207</v>
       </c>
       <c r="S31" t="n">
-        <v>4.791388280764257</v>
+        <v>4.791388280764258</v>
       </c>
       <c r="T31" t="n">
         <v>1.174727434511842</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7468853988435</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>120.6322974881483</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>289.9750342602081</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O11" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P11" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5749157061535</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K12" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.30573917840158</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O12" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0896221709037</v>
+        <v>283.2237699233948</v>
       </c>
       <c r="Q12" t="n">
         <v>201.2268904498485</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.7468853988435</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="L14" t="n">
-        <v>120.632297488148</v>
+        <v>157.4603277954584</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N14" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.5749157061535</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>284.7642057369551</v>
       </c>
       <c r="L15" t="n">
-        <v>294.0896221709037</v>
+        <v>291.5326296282508</v>
       </c>
       <c r="M15" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>80.98032274445306</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P15" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.2268904498485</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.88621252291668</v>
+        <v>65.88621252291665</v>
       </c>
       <c r="L16" t="n">
         <v>142.4988284063799</v>
       </c>
       <c r="M16" t="n">
-        <v>162.2828600509943</v>
+        <v>162.2828600509942</v>
       </c>
       <c r="N16" t="n">
         <v>161.6912651158363</v>
       </c>
       <c r="O16" t="n">
-        <v>138.3192120852061</v>
+        <v>138.319212085206</v>
       </c>
       <c r="P16" t="n">
-        <v>96.85681367522642</v>
+        <v>96.85681367522638</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>124.7468853988435</v>
       </c>
       <c r="K17" t="n">
-        <v>294.0896221709037</v>
+        <v>289.9750342602088</v>
       </c>
       <c r="L17" t="n">
-        <v>289.9750342602081</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>161.5749157061535</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.9803227444535</v>
       </c>
       <c r="L18" t="n">
-        <v>80.98032274445308</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="M18" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N18" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q18" t="n">
         <v>201.2268904498485</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.7468853988435</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>289.9750342602088</v>
       </c>
       <c r="M20" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N20" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>120.632297488148</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q20" t="n">
         <v>161.5749157061535</v>
@@ -36203,19 +36203,19 @@
         <v>284.7642057369551</v>
       </c>
       <c r="L21" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>199.6864546362875</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.6864546362882</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.7468853988435</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,16 +36367,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="O23" t="n">
-        <v>289.9750342602081</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0896221709037</v>
+        <v>282.207213194302</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.5749157061535</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>284.7642057369551</v>
       </c>
       <c r="L24" t="n">
-        <v>294.0896221709037</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="M24" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>294.0896221709037</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>282.2072131943016</v>
+        <v>199.6864546362887</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>294.0896221709043</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>165.6247607678608</v>
+        <v>225.7417100390895</v>
       </c>
       <c r="K26" t="n">
         <v>320.5321508653342</v>
       </c>
       <c r="L26" t="n">
-        <v>549.118055623876</v>
+        <v>489.0011063526483</v>
       </c>
       <c r="M26" t="n">
         <v>605.8300393343529</v>
@@ -36616,7 +36616,7 @@
         <v>262.5697403463995</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854312</v>
+        <v>49.76445252854311</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K27" t="n">
-        <v>43.21153340243557</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>440.7223099916758</v>
@@ -36683,7 +36683,7 @@
         <v>573.0259006545222</v>
       </c>
       <c r="N27" t="n">
-        <v>601.72239621091</v>
+        <v>351.8608641715349</v>
       </c>
       <c r="O27" t="n">
         <v>474.1874955441371</v>
@@ -36692,7 +36692,7 @@
         <v>367.7700801943341</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>201.2268904498485</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.97614835133781</v>
+        <v>60.9761483513378</v>
       </c>
       <c r="K28" t="n">
-        <v>166.8810371631627</v>
+        <v>166.8810371631626</v>
       </c>
       <c r="L28" t="n">
         <v>243.4936530466259</v>
@@ -36765,13 +36765,13 @@
         <v>262.6860897560823</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3140367254514</v>
+        <v>239.314036725452</v>
       </c>
       <c r="P28" t="n">
         <v>197.8516383154724</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.8650150037568</v>
+        <v>85.86501500375678</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>165.6247607678617</v>
+        <v>215.3892132964044</v>
       </c>
       <c r="K29" t="n">
         <v>421.5269755055801</v>
       </c>
       <c r="L29" t="n">
-        <v>549.118055623876</v>
+        <v>448.12323098363</v>
       </c>
       <c r="M29" t="n">
         <v>605.8300393343529</v>
@@ -36844,7 +36844,7 @@
         <v>592.513115650366</v>
       </c>
       <c r="O29" t="n">
-        <v>411.3560880985107</v>
+        <v>512.3509127387566</v>
       </c>
       <c r="P29" t="n">
         <v>419.5954460849377</v>
@@ -36853,7 +36853,7 @@
         <v>262.5697403463995</v>
       </c>
       <c r="R29" t="n">
-        <v>49.7644525285431</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K30" t="n">
         <v>284.7642057369551</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>440.7223099916758</v>
       </c>
       <c r="M30" t="n">
-        <v>570.9686478618305</v>
+        <v>38.40016287819198</v>
       </c>
       <c r="N30" t="n">
         <v>601.72239621091</v>
       </c>
       <c r="O30" t="n">
-        <v>474.187495544137</v>
+        <v>474.1874955441371</v>
       </c>
       <c r="P30" t="n">
         <v>367.7700801943341</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.9761483513378</v>
+        <v>60.97614835133718</v>
       </c>
       <c r="K31" t="n">
         <v>166.8810371631626</v>
@@ -37072,7 +37072,7 @@
         <v>421.5269755055801</v>
       </c>
       <c r="L32" t="n">
-        <v>549.1180556238759</v>
+        <v>448.12323098363</v>
       </c>
       <c r="M32" t="n">
         <v>605.8300393343529</v>
@@ -37084,13 +37084,13 @@
         <v>452.2339634675279</v>
       </c>
       <c r="P32" t="n">
-        <v>318.6006214446918</v>
+        <v>419.5954460849377</v>
       </c>
       <c r="Q32" t="n">
         <v>262.5697403463995</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854308</v>
+        <v>49.7644525285431</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>601.72239621091</v>
       </c>
       <c r="O33" t="n">
-        <v>474.1874955441371</v>
+        <v>316.1721384967245</v>
       </c>
       <c r="P33" t="n">
         <v>367.7700801943341</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.21153340243572</v>
+        <v>201.2268904498485</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133777</v>
+        <v>60.97614835133778</v>
       </c>
       <c r="K34" t="n">
         <v>166.8810371631626</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4936530466258</v>
+        <v>243.4936530466259</v>
       </c>
       <c r="M34" t="n">
         <v>263.2776846912402</v>
@@ -37242,10 +37242,10 @@
         <v>239.314036725452</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8516383154723</v>
+        <v>197.8516383154724</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375675</v>
+        <v>85.86501500375677</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>448.12323098363</v>
       </c>
       <c r="M35" t="n">
-        <v>504.835214694107</v>
+        <v>36.97041072612976</v>
       </c>
       <c r="N35" t="n">
         <v>491.51829101012</v>
@@ -37321,10 +37321,10 @@
         <v>411.3560880985107</v>
       </c>
       <c r="P35" t="n">
-        <v>12.31073318286929</v>
+        <v>318.6006214446918</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>161.5749157061535</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K36" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>440.7223099916758</v>
+        <v>222.3357060395088</v>
       </c>
       <c r="M36" t="n">
-        <v>161.7212659573632</v>
+        <v>573.0259006545222</v>
       </c>
       <c r="N36" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="O36" t="n">
         <v>474.1874955441371</v>
@@ -37546,22 +37546,22 @@
         <v>320.5321508653342</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>448.12323098363</v>
       </c>
       <c r="M38" t="n">
-        <v>485.0936417097607</v>
+        <v>504.835214694107</v>
       </c>
       <c r="N38" t="n">
         <v>491.51829101012</v>
       </c>
       <c r="O38" t="n">
-        <v>411.3560880985107</v>
+        <v>105.0661998366872</v>
       </c>
       <c r="P38" t="n">
         <v>318.6006214446918</v>
       </c>
       <c r="Q38" t="n">
-        <v>161.5749157061535</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>573.0259006545222</v>
       </c>
       <c r="N39" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="O39" t="n">
-        <v>474.1874955441371</v>
+        <v>54.57400114212145</v>
       </c>
       <c r="P39" t="n">
-        <v>241.2296512341302</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>201.2268904498485</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>320.5321508653342</v>
       </c>
       <c r="L41" t="n">
-        <v>430.9523661564353</v>
+        <v>448.12323098363</v>
       </c>
       <c r="M41" t="n">
         <v>504.835214694107</v>
       </c>
       <c r="N41" t="n">
-        <v>491.51829101012</v>
+        <v>153.8152753175917</v>
       </c>
       <c r="O41" t="n">
         <v>411.3560880985107</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.84617499196267</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>284.7642057369551</v>
       </c>
       <c r="L42" t="n">
-        <v>440.7223099916758</v>
+        <v>33.46503892422395</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>573.0259006545222</v>
       </c>
       <c r="N42" t="n">
-        <v>458.3203402011054</v>
+        <v>585.6247760558466</v>
       </c>
       <c r="O42" t="n">
         <v>474.1874955441371</v>
@@ -37877,7 +37877,7 @@
         <v>367.7700801943341</v>
       </c>
       <c r="Q42" t="n">
-        <v>201.2268904498485</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.7468853988435</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>320.5321508653342</v>
       </c>
       <c r="L44" t="n">
-        <v>430.9523661564353</v>
+        <v>448.12323098363</v>
       </c>
       <c r="M44" t="n">
-        <v>504.835214694107</v>
+        <v>42.38531360273512</v>
       </c>
       <c r="N44" t="n">
         <v>491.51829101012</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.84617499196267</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.156179219368</v>
       </c>
       <c r="L45" t="n">
-        <v>117.0023542113303</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>573.0259006545222</v>
       </c>
       <c r="N45" t="n">
-        <v>585.6247760558465</v>
+        <v>585.6247760558466</v>
       </c>
       <c r="O45" t="n">
         <v>474.1874955441371</v>
